--- a/data/zenodo_ivan/storage/CHE_sto_pumpedhydro.xlsx
+++ b/data/zenodo_ivan/storage/CHE_sto_pumpedhydro.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/storage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB36F8C-B67A-6041-AA14-B2D7EE51FB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94E4359-4F2E-7B4D-9435-85FE3943809E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7900" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="-4880" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$573</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$574</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="98">
   <si>
     <t>Name:</t>
   </si>
@@ -321,6 +321,12 @@
   </si>
   <si>
     <t>constant_fxe</t>
+  </si>
+  <si>
+    <t>capacity_to_activity</t>
+  </si>
+  <si>
+    <t>GW/TWh</t>
   </si>
 </sst>
 </file>
@@ -767,11 +773,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L316"/>
+  <dimension ref="A1:L317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -946,30 +952,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>27</v>
+      <c r="C10" t="s">
+        <v>96</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
       </c>
       <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>46</v>
+        <v>1E-3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -980,21 +980,23 @@
         <v>19</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
       </c>
       <c r="G11">
-        <v>8.3000000000000007</v>
+        <v>0</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="I11" t="s">
         <v>45</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1004,16 +1006,19 @@
         <v>19</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
       </c>
       <c r="G12">
-        <v>40</v>
-      </c>
-      <c r="H12" t="s">
-        <v>49</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" t="s">
+        <v>46</v>
       </c>
       <c r="K12" s="3"/>
     </row>
@@ -1025,22 +1030,16 @@
         <v>19</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
       </c>
       <c r="G13">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K13" s="3"/>
     </row>
@@ -1052,49 +1051,52 @@
         <v>19</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
       </c>
       <c r="G14">
+        <v>2500</v>
+      </c>
+      <c r="H14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15">
         <f>1840*1.3</f>
         <v>2392</v>
       </c>
-      <c r="H14" t="s">
-        <v>51</v>
-      </c>
-      <c r="J14" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15">
-        <v>0.9</v>
-      </c>
-      <c r="I15" t="s">
-        <v>45</v>
+      <c r="H15" t="s">
+        <v>51</v>
       </c>
       <c r="J15" t="s">
         <v>46</v>
       </c>
       <c r="K15" s="3"/>
+      <c r="L15" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1104,50 +1106,42 @@
         <v>19</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0.9</v>
+      </c>
+      <c r="I16" t="s">
+        <v>45</v>
       </c>
       <c r="J16" t="s">
         <v>46</v>
       </c>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="C17" t="s">
-        <v>34</v>
+      <c r="C17" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17">
-        <v>1990</v>
+        <v>24</v>
       </c>
       <c r="G17">
-        <v>1695</v>
-      </c>
-      <c r="H17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>57</v>
-      </c>
-      <c r="L17" t="s">
-        <v>58</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -1163,10 +1157,10 @@
         <v>18</v>
       </c>
       <c r="E18">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G18">
-        <v>1946</v>
+        <v>1695</v>
       </c>
       <c r="H18" t="s">
         <v>50</v>
@@ -1175,7 +1169,7 @@
         <v>45</v>
       </c>
       <c r="J18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L18" t="s">
         <v>58</v>
@@ -1195,10 +1189,10 @@
         <v>18</v>
       </c>
       <c r="E19">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G19">
-        <v>1438</v>
+        <v>1946</v>
       </c>
       <c r="H19" t="s">
         <v>50</v>
@@ -1207,7 +1201,7 @@
         <v>45</v>
       </c>
       <c r="J19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L19" t="s">
         <v>58</v>
@@ -1227,10 +1221,10 @@
         <v>18</v>
       </c>
       <c r="E20">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G20">
-        <v>1186</v>
+        <v>1438</v>
       </c>
       <c r="H20" t="s">
         <v>50</v>
@@ -1239,7 +1233,7 @@
         <v>45</v>
       </c>
       <c r="J20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L20" t="s">
         <v>58</v>
@@ -1259,10 +1253,10 @@
         <v>18</v>
       </c>
       <c r="E21">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G21">
-        <v>1271</v>
+        <v>1186</v>
       </c>
       <c r="H21" t="s">
         <v>50</v>
@@ -1271,7 +1265,7 @@
         <v>45</v>
       </c>
       <c r="J21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L21" t="s">
         <v>58</v>
@@ -1291,10 +1285,10 @@
         <v>18</v>
       </c>
       <c r="E22">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G22">
-        <v>1520</v>
+        <v>1271</v>
       </c>
       <c r="H22" t="s">
         <v>50</v>
@@ -1303,7 +1297,7 @@
         <v>45</v>
       </c>
       <c r="J22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L22" t="s">
         <v>58</v>
@@ -1323,10 +1317,10 @@
         <v>18</v>
       </c>
       <c r="E23">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G23">
-        <v>1754</v>
+        <v>1520</v>
       </c>
       <c r="H23" t="s">
         <v>50</v>
@@ -1335,7 +1329,7 @@
         <v>45</v>
       </c>
       <c r="J23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L23" t="s">
         <v>58</v>
@@ -1355,10 +1349,10 @@
         <v>18</v>
       </c>
       <c r="E24">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G24">
-        <v>1519</v>
+        <v>1754</v>
       </c>
       <c r="H24" t="s">
         <v>50</v>
@@ -1367,7 +1361,7 @@
         <v>45</v>
       </c>
       <c r="J24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L24" t="s">
         <v>58</v>
@@ -1387,10 +1381,10 @@
         <v>18</v>
       </c>
       <c r="E25">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G25">
-        <v>1620</v>
+        <v>1519</v>
       </c>
       <c r="H25" t="s">
         <v>50</v>
@@ -1399,7 +1393,7 @@
         <v>45</v>
       </c>
       <c r="J25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L25" t="s">
         <v>58</v>
@@ -1419,10 +1413,10 @@
         <v>18</v>
       </c>
       <c r="E26">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G26">
-        <v>1408</v>
+        <v>1620</v>
       </c>
       <c r="H26" t="s">
         <v>50</v>
@@ -1431,7 +1425,7 @@
         <v>45</v>
       </c>
       <c r="J26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L26" t="s">
         <v>58</v>
@@ -1451,10 +1445,10 @@
         <v>18</v>
       </c>
       <c r="E27">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G27">
-        <v>1974</v>
+        <v>1408</v>
       </c>
       <c r="H27" t="s">
         <v>50</v>
@@ -1463,7 +1457,7 @@
         <v>45</v>
       </c>
       <c r="J27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L27" t="s">
         <v>58</v>
@@ -1483,10 +1477,10 @@
         <v>18</v>
       </c>
       <c r="E28">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G28">
-        <v>1947</v>
+        <v>1974</v>
       </c>
       <c r="H28" t="s">
         <v>50</v>
@@ -1495,7 +1489,7 @@
         <v>45</v>
       </c>
       <c r="J28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L28" t="s">
         <v>58</v>
@@ -1515,10 +1509,10 @@
         <v>18</v>
       </c>
       <c r="E29">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G29">
-        <v>2418</v>
+        <v>1947</v>
       </c>
       <c r="H29" t="s">
         <v>50</v>
@@ -1527,7 +1521,7 @@
         <v>45</v>
       </c>
       <c r="J29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L29" t="s">
         <v>58</v>
@@ -1547,10 +1541,10 @@
         <v>18</v>
       </c>
       <c r="E30">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G30">
-        <v>2893</v>
+        <v>2418</v>
       </c>
       <c r="H30" t="s">
         <v>50</v>
@@ -1559,7 +1553,7 @@
         <v>45</v>
       </c>
       <c r="J30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L30" t="s">
         <v>58</v>
@@ -1579,10 +1573,10 @@
         <v>18</v>
       </c>
       <c r="E31">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G31">
-        <v>2433</v>
+        <v>2893</v>
       </c>
       <c r="H31" t="s">
         <v>50</v>
@@ -1591,7 +1585,7 @@
         <v>45</v>
       </c>
       <c r="J31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L31" t="s">
         <v>58</v>
@@ -1611,10 +1605,10 @@
         <v>18</v>
       </c>
       <c r="E32">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G32">
-        <v>2631</v>
+        <v>2433</v>
       </c>
       <c r="H32" t="s">
         <v>50</v>
@@ -1623,7 +1617,7 @@
         <v>45</v>
       </c>
       <c r="J32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L32" t="s">
         <v>58</v>
@@ -1643,10 +1637,10 @@
         <v>18</v>
       </c>
       <c r="E33">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G33">
-        <v>2720</v>
+        <v>2631</v>
       </c>
       <c r="H33" t="s">
         <v>50</v>
@@ -1655,7 +1649,7 @@
         <v>45</v>
       </c>
       <c r="J33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L33" t="s">
         <v>58</v>
@@ -1675,10 +1669,10 @@
         <v>18</v>
       </c>
       <c r="E34">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G34">
-        <v>2104</v>
+        <v>2720</v>
       </c>
       <c r="H34" t="s">
         <v>50</v>
@@ -1687,7 +1681,7 @@
         <v>45</v>
       </c>
       <c r="J34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L34" t="s">
         <v>58</v>
@@ -1707,10 +1701,10 @@
         <v>18</v>
       </c>
       <c r="E35">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G35">
-        <v>2685</v>
+        <v>2104</v>
       </c>
       <c r="H35" t="s">
         <v>50</v>
@@ -1719,7 +1713,7 @@
         <v>45</v>
       </c>
       <c r="J35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L35" t="s">
         <v>58</v>
@@ -1739,10 +1733,10 @@
         <v>18</v>
       </c>
       <c r="E36">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G36">
-        <v>2523</v>
+        <v>2685</v>
       </c>
       <c r="H36" t="s">
         <v>50</v>
@@ -1751,7 +1745,7 @@
         <v>45</v>
       </c>
       <c r="J36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L36" t="s">
         <v>58</v>
@@ -1771,10 +1765,10 @@
         <v>18</v>
       </c>
       <c r="E37">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G37">
-        <v>2494</v>
+        <v>2523</v>
       </c>
       <c r="H37" t="s">
         <v>50</v>
@@ -1783,7 +1777,7 @@
         <v>45</v>
       </c>
       <c r="J37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L37" t="s">
         <v>58</v>
@@ -1803,10 +1797,10 @@
         <v>18</v>
       </c>
       <c r="E38">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G38">
-        <v>2466</v>
+        <v>2494</v>
       </c>
       <c r="H38" t="s">
         <v>50</v>
@@ -1815,7 +1809,7 @@
         <v>45</v>
       </c>
       <c r="J38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L38" t="s">
         <v>58</v>
@@ -1835,10 +1829,10 @@
         <v>18</v>
       </c>
       <c r="E39">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G39">
-        <v>2411</v>
+        <v>2466</v>
       </c>
       <c r="H39" t="s">
         <v>50</v>
@@ -1847,7 +1841,7 @@
         <v>45</v>
       </c>
       <c r="J39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L39" t="s">
         <v>58</v>
@@ -1867,10 +1861,10 @@
         <v>18</v>
       </c>
       <c r="E40">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G40">
-        <v>2132</v>
+        <v>2411</v>
       </c>
       <c r="H40" t="s">
         <v>50</v>
@@ -1879,7 +1873,7 @@
         <v>45</v>
       </c>
       <c r="J40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L40" t="s">
         <v>58</v>
@@ -1899,10 +1893,10 @@
         <v>18</v>
       </c>
       <c r="E41">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G41">
-        <v>2355</v>
+        <v>2132</v>
       </c>
       <c r="H41" t="s">
         <v>50</v>
@@ -1911,7 +1905,7 @@
         <v>45</v>
       </c>
       <c r="J41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L41" t="s">
         <v>58</v>
@@ -1931,10 +1925,10 @@
         <v>18</v>
       </c>
       <c r="E42">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G42">
-        <v>2296</v>
+        <v>2355</v>
       </c>
       <c r="H42" t="s">
         <v>50</v>
@@ -1943,7 +1937,7 @@
         <v>45</v>
       </c>
       <c r="J42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L42" t="s">
         <v>58</v>
@@ -1963,10 +1957,10 @@
         <v>18</v>
       </c>
       <c r="E43">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G43">
-        <v>2922</v>
+        <v>2296</v>
       </c>
       <c r="H43" t="s">
         <v>50</v>
@@ -1975,7 +1969,7 @@
         <v>45</v>
       </c>
       <c r="J43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L43" t="s">
         <v>58</v>
@@ -1995,10 +1989,10 @@
         <v>18</v>
       </c>
       <c r="E44">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G44">
-        <v>4160</v>
+        <v>2922</v>
       </c>
       <c r="H44" t="s">
         <v>50</v>
@@ -2007,7 +2001,7 @@
         <v>45</v>
       </c>
       <c r="J44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L44" t="s">
         <v>58</v>
@@ -2027,10 +2021,10 @@
         <v>18</v>
       </c>
       <c r="E45">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G45">
-        <v>3987</v>
+        <v>4160</v>
       </c>
       <c r="H45" t="s">
         <v>50</v>
@@ -2039,7 +2033,7 @@
         <v>45</v>
       </c>
       <c r="J45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L45" t="s">
         <v>58</v>
@@ -2059,10 +2053,10 @@
         <v>18</v>
       </c>
       <c r="E46">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G46">
-        <v>4133</v>
+        <v>3987</v>
       </c>
       <c r="H46" t="s">
         <v>50</v>
@@ -2071,7 +2065,7 @@
         <v>45</v>
       </c>
       <c r="J46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L46" t="s">
         <v>58</v>
@@ -2085,25 +2079,28 @@
         <v>19</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
       </c>
       <c r="E47">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G47">
-        <v>1770</v>
+        <v>4133</v>
       </c>
       <c r="H47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I47" t="s">
         <v>45</v>
       </c>
       <c r="J47" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="L47" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -2120,7 +2117,7 @@
         <v>18</v>
       </c>
       <c r="E48">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G48">
         <v>1770</v>
@@ -2131,6 +2128,9 @@
       <c r="I48" t="s">
         <v>45</v>
       </c>
+      <c r="J48" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -2146,7 +2146,7 @@
         <v>18</v>
       </c>
       <c r="E49">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G49">
         <v>1770</v>
@@ -2172,7 +2172,7 @@
         <v>18</v>
       </c>
       <c r="E50">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G50">
         <v>1770</v>
@@ -2198,7 +2198,7 @@
         <v>18</v>
       </c>
       <c r="E51">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G51">
         <v>1770</v>
@@ -2224,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="E52">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G52">
         <v>1770</v>
@@ -2250,7 +2250,7 @@
         <v>18</v>
       </c>
       <c r="E53">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G53">
         <v>1770</v>
@@ -2276,7 +2276,7 @@
         <v>18</v>
       </c>
       <c r="E54">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G54">
         <v>1770</v>
@@ -2302,7 +2302,7 @@
         <v>18</v>
       </c>
       <c r="E55">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G55">
         <v>1770</v>
@@ -2328,7 +2328,7 @@
         <v>18</v>
       </c>
       <c r="E56">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G56">
         <v>1770</v>
@@ -2354,19 +2354,16 @@
         <v>18</v>
       </c>
       <c r="E57">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G57">
-        <v>1760</v>
+        <v>1770</v>
       </c>
       <c r="H57" t="s">
         <v>51</v>
       </c>
       <c r="I57" t="s">
         <v>45</v>
-      </c>
-      <c r="J57" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -2383,7 +2380,7 @@
         <v>18</v>
       </c>
       <c r="E58">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G58">
         <v>1760</v>
@@ -2394,6 +2391,9 @@
       <c r="I58" t="s">
         <v>45</v>
       </c>
+      <c r="J58" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
@@ -2409,7 +2409,7 @@
         <v>18</v>
       </c>
       <c r="E59">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G59">
         <v>1760</v>
@@ -2435,7 +2435,7 @@
         <v>18</v>
       </c>
       <c r="E60">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G60">
         <v>1760</v>
@@ -2461,7 +2461,7 @@
         <v>18</v>
       </c>
       <c r="E61">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G61">
         <v>1760</v>
@@ -2487,19 +2487,16 @@
         <v>18</v>
       </c>
       <c r="E62">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G62">
-        <v>1700</v>
+        <v>1760</v>
       </c>
       <c r="H62" t="s">
         <v>51</v>
       </c>
       <c r="I62" t="s">
         <v>45</v>
-      </c>
-      <c r="J62" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -2516,7 +2513,7 @@
         <v>18</v>
       </c>
       <c r="E63">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G63">
         <v>1700</v>
@@ -2527,6 +2524,9 @@
       <c r="I63" t="s">
         <v>45</v>
       </c>
+      <c r="J63" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
@@ -2542,7 +2542,7 @@
         <v>18</v>
       </c>
       <c r="E64">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G64">
         <v>1700</v>
@@ -2568,7 +2568,7 @@
         <v>18</v>
       </c>
       <c r="E65">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G65">
         <v>1700</v>
@@ -2594,7 +2594,7 @@
         <v>18</v>
       </c>
       <c r="E66">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G66">
         <v>1700</v>
@@ -2620,19 +2620,16 @@
         <v>18</v>
       </c>
       <c r="E67">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G67">
-        <v>1840</v>
+        <v>1700</v>
       </c>
       <c r="H67" t="s">
         <v>51</v>
       </c>
       <c r="I67" t="s">
         <v>45</v>
-      </c>
-      <c r="J67" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -2649,7 +2646,7 @@
         <v>18</v>
       </c>
       <c r="E68">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G68">
         <v>1840</v>
@@ -2678,7 +2675,7 @@
         <v>18</v>
       </c>
       <c r="E69">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G69">
         <v>1840</v>
@@ -2707,7 +2704,7 @@
         <v>18</v>
       </c>
       <c r="E70">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G70">
         <v>1840</v>
@@ -2736,7 +2733,7 @@
         <v>18</v>
       </c>
       <c r="E71">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G71">
         <v>1840</v>
@@ -2765,7 +2762,7 @@
         <v>18</v>
       </c>
       <c r="E72">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G72">
         <v>1840</v>
@@ -2776,6 +2773,9 @@
       <c r="I72" t="s">
         <v>45</v>
       </c>
+      <c r="J72" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
@@ -2791,7 +2791,7 @@
         <v>18</v>
       </c>
       <c r="E73">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G73">
         <v>1840</v>
@@ -2817,7 +2817,7 @@
         <v>18</v>
       </c>
       <c r="E74">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G74">
         <v>1840</v>
@@ -2843,7 +2843,7 @@
         <v>18</v>
       </c>
       <c r="E75">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G75">
         <v>1840</v>
@@ -2869,7 +2869,7 @@
         <v>18</v>
       </c>
       <c r="E76">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G76">
         <v>1840</v>
@@ -2889,25 +2889,22 @@
         <v>19</v>
       </c>
       <c r="C77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D77" t="s">
         <v>18</v>
       </c>
       <c r="E77">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>1840</v>
       </c>
       <c r="H77" t="s">
         <v>51</v>
       </c>
       <c r="I77" t="s">
         <v>45</v>
-      </c>
-      <c r="L77" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -2924,7 +2921,7 @@
         <v>18</v>
       </c>
       <c r="E78">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -2953,7 +2950,7 @@
         <v>18</v>
       </c>
       <c r="E79">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -2982,7 +2979,7 @@
         <v>18</v>
       </c>
       <c r="E80">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -3011,7 +3008,7 @@
         <v>18</v>
       </c>
       <c r="E81">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -3040,7 +3037,7 @@
         <v>18</v>
       </c>
       <c r="E82">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -3069,7 +3066,7 @@
         <v>18</v>
       </c>
       <c r="E83">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -3098,7 +3095,7 @@
         <v>18</v>
       </c>
       <c r="E84">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -3127,7 +3124,7 @@
         <v>18</v>
       </c>
       <c r="E85">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -3156,7 +3153,7 @@
         <v>18</v>
       </c>
       <c r="E86">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -3185,7 +3182,7 @@
         <v>18</v>
       </c>
       <c r="E87">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -3214,7 +3211,7 @@
         <v>18</v>
       </c>
       <c r="E88">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3243,7 +3240,7 @@
         <v>18</v>
       </c>
       <c r="E89">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -3272,7 +3269,7 @@
         <v>18</v>
       </c>
       <c r="E90">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3301,7 +3298,7 @@
         <v>18</v>
       </c>
       <c r="E91">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -3330,7 +3327,7 @@
         <v>18</v>
       </c>
       <c r="E92">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -3359,7 +3356,7 @@
         <v>18</v>
       </c>
       <c r="E93">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3388,7 +3385,7 @@
         <v>18</v>
       </c>
       <c r="E94">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -3417,7 +3414,7 @@
         <v>18</v>
       </c>
       <c r="E95">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3446,7 +3443,7 @@
         <v>18</v>
       </c>
       <c r="E96">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -3475,10 +3472,10 @@
         <v>18</v>
       </c>
       <c r="E97">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G97">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="H97" t="s">
         <v>51</v>
@@ -3504,10 +3501,10 @@
         <v>18</v>
       </c>
       <c r="E98">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="H98" t="s">
         <v>51</v>
@@ -3533,7 +3530,7 @@
         <v>18</v>
       </c>
       <c r="E99">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -3562,7 +3559,7 @@
         <v>18</v>
       </c>
       <c r="E100">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -3591,7 +3588,7 @@
         <v>18</v>
       </c>
       <c r="E101">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -3620,7 +3617,7 @@
         <v>18</v>
       </c>
       <c r="E102">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -3649,7 +3646,7 @@
         <v>18</v>
       </c>
       <c r="E103">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -3678,7 +3675,7 @@
         <v>18</v>
       </c>
       <c r="E104">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -3707,7 +3704,7 @@
         <v>18</v>
       </c>
       <c r="E105">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -3736,7 +3733,7 @@
         <v>18</v>
       </c>
       <c r="E106">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3759,13 +3756,13 @@
         <v>19</v>
       </c>
       <c r="C107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D107" t="s">
         <v>18</v>
       </c>
       <c r="E107">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -3794,7 +3791,7 @@
         <v>18</v>
       </c>
       <c r="E108">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3823,7 +3820,7 @@
         <v>18</v>
       </c>
       <c r="E109">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3852,7 +3849,7 @@
         <v>18</v>
       </c>
       <c r="E110">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -3881,7 +3878,7 @@
         <v>18</v>
       </c>
       <c r="E111">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3910,7 +3907,7 @@
         <v>18</v>
       </c>
       <c r="E112">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3939,7 +3936,7 @@
         <v>18</v>
       </c>
       <c r="E113">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3968,7 +3965,7 @@
         <v>18</v>
       </c>
       <c r="E114">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3997,7 +3994,7 @@
         <v>18</v>
       </c>
       <c r="E115">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -4026,7 +4023,7 @@
         <v>18</v>
       </c>
       <c r="E116">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -4055,10 +4052,10 @@
         <v>18</v>
       </c>
       <c r="E117">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G117">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H117" t="s">
         <v>51</v>
@@ -4084,10 +4081,10 @@
         <v>18</v>
       </c>
       <c r="E118">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H118" t="s">
         <v>51</v>
@@ -4113,7 +4110,7 @@
         <v>18</v>
       </c>
       <c r="E119">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -4142,7 +4139,7 @@
         <v>18</v>
       </c>
       <c r="E120">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -4171,7 +4168,7 @@
         <v>18</v>
       </c>
       <c r="E121">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4200,10 +4197,10 @@
         <v>18</v>
       </c>
       <c r="E122">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G122">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H122" t="s">
         <v>51</v>
@@ -4229,10 +4226,10 @@
         <v>18</v>
       </c>
       <c r="E123">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H123" t="s">
         <v>51</v>
@@ -4258,7 +4255,7 @@
         <v>18</v>
       </c>
       <c r="E124">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4287,7 +4284,7 @@
         <v>18</v>
       </c>
       <c r="E125">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -4316,7 +4313,7 @@
         <v>18</v>
       </c>
       <c r="E126">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4345,7 +4342,7 @@
         <v>18</v>
       </c>
       <c r="E127">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -4374,7 +4371,7 @@
         <v>18</v>
       </c>
       <c r="E128">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -4403,7 +4400,7 @@
         <v>18</v>
       </c>
       <c r="E129">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -4432,7 +4429,7 @@
         <v>18</v>
       </c>
       <c r="E130">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4461,7 +4458,7 @@
         <v>18</v>
       </c>
       <c r="E131">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -4490,7 +4487,7 @@
         <v>18</v>
       </c>
       <c r="E132">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -4519,7 +4516,7 @@
         <v>18</v>
       </c>
       <c r="E133">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -4548,7 +4545,7 @@
         <v>18</v>
       </c>
       <c r="E134">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -4577,7 +4574,7 @@
         <v>18</v>
       </c>
       <c r="E135">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -4606,7 +4603,7 @@
         <v>18</v>
       </c>
       <c r="E136">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -4629,13 +4626,25 @@
         <v>19</v>
       </c>
       <c r="C137" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D137" t="s">
         <v>18</v>
       </c>
       <c r="E137">
-        <v>1990</v>
+        <v>2019</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137" t="s">
+        <v>51</v>
+      </c>
+      <c r="I137" t="s">
+        <v>45</v>
+      </c>
+      <c r="L137" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -4652,7 +4661,7 @@
         <v>18</v>
       </c>
       <c r="E138">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -4669,7 +4678,7 @@
         <v>18</v>
       </c>
       <c r="E139">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -4686,7 +4695,7 @@
         <v>18</v>
       </c>
       <c r="E140">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -4703,7 +4712,7 @@
         <v>18</v>
       </c>
       <c r="E141">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
@@ -4720,7 +4729,7 @@
         <v>18</v>
       </c>
       <c r="E142">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
@@ -4737,7 +4746,7 @@
         <v>18</v>
       </c>
       <c r="E143">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
@@ -4754,7 +4763,7 @@
         <v>18</v>
       </c>
       <c r="E144">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
@@ -4771,7 +4780,7 @@
         <v>18</v>
       </c>
       <c r="E145">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
@@ -4788,7 +4797,7 @@
         <v>18</v>
       </c>
       <c r="E146">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
@@ -4805,7 +4814,7 @@
         <v>18</v>
       </c>
       <c r="E147">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
@@ -4822,7 +4831,7 @@
         <v>18</v>
       </c>
       <c r="E148">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
@@ -4839,7 +4848,7 @@
         <v>18</v>
       </c>
       <c r="E149">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
@@ -4856,7 +4865,7 @@
         <v>18</v>
       </c>
       <c r="E150">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
@@ -4873,7 +4882,7 @@
         <v>18</v>
       </c>
       <c r="E151">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
@@ -4890,7 +4899,7 @@
         <v>18</v>
       </c>
       <c r="E152">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
@@ -4907,7 +4916,7 @@
         <v>18</v>
       </c>
       <c r="E153">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
@@ -4924,7 +4933,7 @@
         <v>18</v>
       </c>
       <c r="E154">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
@@ -4941,7 +4950,7 @@
         <v>18</v>
       </c>
       <c r="E155">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
@@ -4958,7 +4967,7 @@
         <v>18</v>
       </c>
       <c r="E156">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
@@ -4975,7 +4984,7 @@
         <v>18</v>
       </c>
       <c r="E157">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
@@ -4992,22 +5001,7 @@
         <v>18</v>
       </c>
       <c r="E158">
-        <v>2011</v>
-      </c>
-      <c r="G158">
-        <v>33.53</v>
-      </c>
-      <c r="H158" t="s">
-        <v>90</v>
-      </c>
-      <c r="I158" t="s">
-        <v>45</v>
-      </c>
-      <c r="J158" t="s">
-        <v>91</v>
-      </c>
-      <c r="L158" t="s">
-        <v>92</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
@@ -5024,7 +5018,22 @@
         <v>18</v>
       </c>
       <c r="E159">
-        <v>2012</v>
+        <v>2011</v>
+      </c>
+      <c r="G159">
+        <v>33.53</v>
+      </c>
+      <c r="H159" t="s">
+        <v>90</v>
+      </c>
+      <c r="I159" t="s">
+        <v>45</v>
+      </c>
+      <c r="J159" t="s">
+        <v>91</v>
+      </c>
+      <c r="L159" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
@@ -5041,7 +5050,7 @@
         <v>18</v>
       </c>
       <c r="E160">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -5058,7 +5067,7 @@
         <v>18</v>
       </c>
       <c r="E161">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -5075,7 +5084,7 @@
         <v>18</v>
       </c>
       <c r="E162">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -5092,7 +5101,7 @@
         <v>18</v>
       </c>
       <c r="E163">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -5109,7 +5118,7 @@
         <v>18</v>
       </c>
       <c r="E164">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -5126,7 +5135,7 @@
         <v>18</v>
       </c>
       <c r="E165">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -5143,7 +5152,7 @@
         <v>18</v>
       </c>
       <c r="E166">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -5154,13 +5163,13 @@
         <v>19</v>
       </c>
       <c r="C167" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D167" t="s">
         <v>18</v>
       </c>
       <c r="E167">
-        <v>1990</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -5177,7 +5186,7 @@
         <v>18</v>
       </c>
       <c r="E168">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -5194,7 +5203,7 @@
         <v>18</v>
       </c>
       <c r="E169">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -5211,7 +5220,7 @@
         <v>18</v>
       </c>
       <c r="E170">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -5228,7 +5237,7 @@
         <v>18</v>
       </c>
       <c r="E171">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -5245,7 +5254,7 @@
         <v>18</v>
       </c>
       <c r="E172">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -5262,7 +5271,7 @@
         <v>18</v>
       </c>
       <c r="E173">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -5279,7 +5288,7 @@
         <v>18</v>
       </c>
       <c r="E174">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
@@ -5296,7 +5305,7 @@
         <v>18</v>
       </c>
       <c r="E175">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -5313,7 +5322,7 @@
         <v>18</v>
       </c>
       <c r="E176">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
@@ -5330,7 +5339,7 @@
         <v>18</v>
       </c>
       <c r="E177">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
@@ -5347,7 +5356,7 @@
         <v>18</v>
       </c>
       <c r="E178">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
@@ -5364,7 +5373,7 @@
         <v>18</v>
       </c>
       <c r="E179">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
@@ -5381,7 +5390,7 @@
         <v>18</v>
       </c>
       <c r="E180">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
@@ -5398,7 +5407,7 @@
         <v>18</v>
       </c>
       <c r="E181">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
@@ -5415,7 +5424,7 @@
         <v>18</v>
       </c>
       <c r="E182">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
@@ -5432,7 +5441,7 @@
         <v>18</v>
       </c>
       <c r="E183">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
@@ -5449,7 +5458,7 @@
         <v>18</v>
       </c>
       <c r="E184">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
@@ -5466,7 +5475,7 @@
         <v>18</v>
       </c>
       <c r="E185">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
@@ -5483,7 +5492,7 @@
         <v>18</v>
       </c>
       <c r="E186">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
@@ -5500,7 +5509,7 @@
         <v>18</v>
       </c>
       <c r="E187">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
@@ -5517,22 +5526,7 @@
         <v>18</v>
       </c>
       <c r="E188">
-        <v>2011</v>
-      </c>
-      <c r="G188">
-        <v>1869</v>
-      </c>
-      <c r="H188" t="s">
-        <v>90</v>
-      </c>
-      <c r="I188" t="s">
-        <v>45</v>
-      </c>
-      <c r="J188" t="s">
-        <v>91</v>
-      </c>
-      <c r="L188" t="s">
-        <v>92</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
@@ -5549,7 +5543,22 @@
         <v>18</v>
       </c>
       <c r="E189">
-        <v>2012</v>
+        <v>2011</v>
+      </c>
+      <c r="G189">
+        <v>1869</v>
+      </c>
+      <c r="H189" t="s">
+        <v>90</v>
+      </c>
+      <c r="I189" t="s">
+        <v>45</v>
+      </c>
+      <c r="J189" t="s">
+        <v>91</v>
+      </c>
+      <c r="L189" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
@@ -5566,7 +5575,7 @@
         <v>18</v>
       </c>
       <c r="E190">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
@@ -5583,7 +5592,7 @@
         <v>18</v>
       </c>
       <c r="E191">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
@@ -5600,7 +5609,7 @@
         <v>18</v>
       </c>
       <c r="E192">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
@@ -5617,7 +5626,7 @@
         <v>18</v>
       </c>
       <c r="E193">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
@@ -5634,7 +5643,7 @@
         <v>18</v>
       </c>
       <c r="E194">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -5651,7 +5660,7 @@
         <v>18</v>
       </c>
       <c r="E195">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -5668,7 +5677,7 @@
         <v>18</v>
       </c>
       <c r="E196">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -5679,13 +5688,13 @@
         <v>19</v>
       </c>
       <c r="C197" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D197" t="s">
         <v>18</v>
       </c>
       <c r="E197">
-        <v>1990</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
@@ -5702,7 +5711,7 @@
         <v>18</v>
       </c>
       <c r="E198">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
@@ -5719,7 +5728,7 @@
         <v>18</v>
       </c>
       <c r="E199">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
@@ -5736,7 +5745,7 @@
         <v>18</v>
       </c>
       <c r="E200">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
@@ -5753,7 +5762,7 @@
         <v>18</v>
       </c>
       <c r="E201">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
@@ -5770,7 +5779,7 @@
         <v>18</v>
       </c>
       <c r="E202">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
@@ -5787,7 +5796,7 @@
         <v>18</v>
       </c>
       <c r="E203">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
@@ -5804,7 +5813,7 @@
         <v>18</v>
       </c>
       <c r="E204">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
@@ -5821,7 +5830,7 @@
         <v>18</v>
       </c>
       <c r="E205">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
@@ -5838,7 +5847,7 @@
         <v>18</v>
       </c>
       <c r="E206">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
@@ -5855,7 +5864,7 @@
         <v>18</v>
       </c>
       <c r="E207">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
@@ -5872,7 +5881,7 @@
         <v>18</v>
       </c>
       <c r="E208">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
@@ -5889,7 +5898,7 @@
         <v>18</v>
       </c>
       <c r="E209">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
@@ -5906,7 +5915,7 @@
         <v>18</v>
       </c>
       <c r="E210">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
@@ -5923,7 +5932,7 @@
         <v>18</v>
       </c>
       <c r="E211">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.2">
@@ -5940,7 +5949,7 @@
         <v>18</v>
       </c>
       <c r="E212">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
@@ -5957,7 +5966,7 @@
         <v>18</v>
       </c>
       <c r="E213">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
@@ -5974,7 +5983,7 @@
         <v>18</v>
       </c>
       <c r="E214">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
@@ -5991,7 +6000,7 @@
         <v>18</v>
       </c>
       <c r="E215">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
@@ -6008,7 +6017,7 @@
         <v>18</v>
       </c>
       <c r="E216">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
@@ -6025,7 +6034,7 @@
         <v>18</v>
       </c>
       <c r="E217">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
@@ -6042,22 +6051,7 @@
         <v>18</v>
       </c>
       <c r="E218">
-        <v>2011</v>
-      </c>
-      <c r="G218">
-        <v>0</v>
-      </c>
-      <c r="H218" t="s">
-        <v>93</v>
-      </c>
-      <c r="I218" t="s">
-        <v>45</v>
-      </c>
-      <c r="J218" t="s">
-        <v>91</v>
-      </c>
-      <c r="L218" t="s">
-        <v>92</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
@@ -6074,7 +6068,22 @@
         <v>18</v>
       </c>
       <c r="E219">
-        <v>2012</v>
+        <v>2011</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219" t="s">
+        <v>93</v>
+      </c>
+      <c r="I219" t="s">
+        <v>45</v>
+      </c>
+      <c r="J219" t="s">
+        <v>91</v>
+      </c>
+      <c r="L219" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.2">
@@ -6091,7 +6100,7 @@
         <v>18</v>
       </c>
       <c r="E220">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.2">
@@ -6108,7 +6117,7 @@
         <v>18</v>
       </c>
       <c r="E221">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
@@ -6125,7 +6134,7 @@
         <v>18</v>
       </c>
       <c r="E222">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
@@ -6142,7 +6151,7 @@
         <v>18</v>
       </c>
       <c r="E223">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.2">
@@ -6159,7 +6168,7 @@
         <v>18</v>
       </c>
       <c r="E224">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
@@ -6176,7 +6185,7 @@
         <v>18</v>
       </c>
       <c r="E225">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
@@ -6193,7 +6202,7 @@
         <v>18</v>
       </c>
       <c r="E226">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
@@ -6204,25 +6213,13 @@
         <v>19</v>
       </c>
       <c r="C227" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D227" t="s">
         <v>18</v>
       </c>
       <c r="E227">
-        <v>1990</v>
-      </c>
-      <c r="G227">
-        <v>0</v>
-      </c>
-      <c r="H227" t="s">
-        <v>51</v>
-      </c>
-      <c r="I227" t="s">
-        <v>45</v>
-      </c>
-      <c r="L227" t="s">
-        <v>94</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
@@ -6239,7 +6236,7 @@
         <v>18</v>
       </c>
       <c r="E228">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G228">
         <v>0</v>
@@ -6268,7 +6265,7 @@
         <v>18</v>
       </c>
       <c r="E229">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -6297,7 +6294,7 @@
         <v>18</v>
       </c>
       <c r="E230">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -6326,7 +6323,7 @@
         <v>18</v>
       </c>
       <c r="E231">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -6355,7 +6352,7 @@
         <v>18</v>
       </c>
       <c r="E232">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -6384,7 +6381,7 @@
         <v>18</v>
       </c>
       <c r="E233">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -6413,7 +6410,7 @@
         <v>18</v>
       </c>
       <c r="E234">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -6442,7 +6439,7 @@
         <v>18</v>
       </c>
       <c r="E235">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -6471,7 +6468,7 @@
         <v>18</v>
       </c>
       <c r="E236">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -6500,10 +6497,10 @@
         <v>18</v>
       </c>
       <c r="E237">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G237">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H237" t="s">
         <v>51</v>
@@ -6529,10 +6526,10 @@
         <v>18</v>
       </c>
       <c r="E238">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G238">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H238" t="s">
         <v>51</v>
@@ -6558,7 +6555,7 @@
         <v>18</v>
       </c>
       <c r="E239">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -6587,7 +6584,7 @@
         <v>18</v>
       </c>
       <c r="E240">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -6616,7 +6613,7 @@
         <v>18</v>
       </c>
       <c r="E241">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -6645,10 +6642,10 @@
         <v>18</v>
       </c>
       <c r="E242">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G242">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H242" t="s">
         <v>51</v>
@@ -6674,10 +6671,10 @@
         <v>18</v>
       </c>
       <c r="E243">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G243">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H243" t="s">
         <v>51</v>
@@ -6703,7 +6700,7 @@
         <v>18</v>
       </c>
       <c r="E244">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -6732,7 +6729,7 @@
         <v>18</v>
       </c>
       <c r="E245">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -6761,7 +6758,7 @@
         <v>18</v>
       </c>
       <c r="E246">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -6790,7 +6787,7 @@
         <v>18</v>
       </c>
       <c r="E247">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -6819,7 +6816,7 @@
         <v>18</v>
       </c>
       <c r="E248">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -6848,7 +6845,7 @@
         <v>18</v>
       </c>
       <c r="E249">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -6877,7 +6874,7 @@
         <v>18</v>
       </c>
       <c r="E250">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -6906,7 +6903,7 @@
         <v>18</v>
       </c>
       <c r="E251">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -6935,7 +6932,7 @@
         <v>18</v>
       </c>
       <c r="E252">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -6964,7 +6961,7 @@
         <v>18</v>
       </c>
       <c r="E253">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -6993,7 +6990,7 @@
         <v>18</v>
       </c>
       <c r="E254">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -7022,7 +7019,7 @@
         <v>18</v>
       </c>
       <c r="E255">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -7051,7 +7048,7 @@
         <v>18</v>
       </c>
       <c r="E256">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -7066,7 +7063,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>16</v>
       </c>
@@ -7074,25 +7071,28 @@
         <v>19</v>
       </c>
       <c r="C257" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D257" t="s">
         <v>18</v>
       </c>
       <c r="E257">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G257">
-        <v>0.4</v>
+        <v>0</v>
+      </c>
+      <c r="H257" t="s">
+        <v>51</v>
       </c>
       <c r="I257" t="s">
         <v>45</v>
       </c>
-      <c r="J257" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L257" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>16</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>18</v>
       </c>
       <c r="E258">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G258">
         <v>0.4</v>
@@ -7118,7 +7118,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>16</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>18</v>
       </c>
       <c r="E259">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G259">
         <v>0.4</v>
@@ -7144,7 +7144,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>16</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>18</v>
       </c>
       <c r="E260">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G260">
         <v>0.4</v>
@@ -7170,7 +7170,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>16</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>18</v>
       </c>
       <c r="E261">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G261">
         <v>0.4</v>
@@ -7196,7 +7196,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>16</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>18</v>
       </c>
       <c r="E262">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G262">
         <v>0.4</v>
@@ -7222,7 +7222,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>16</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>18</v>
       </c>
       <c r="E263">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G263">
         <v>0.4</v>
@@ -7248,7 +7248,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>16</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>18</v>
       </c>
       <c r="E264">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G264">
         <v>0.4</v>
@@ -7274,7 +7274,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>16</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>18</v>
       </c>
       <c r="E265">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G265">
         <v>0.4</v>
@@ -7300,7 +7300,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>16</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>18</v>
       </c>
       <c r="E266">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G266">
         <v>0.4</v>
@@ -7326,7 +7326,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>16</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>18</v>
       </c>
       <c r="E267">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G267">
         <v>0.4</v>
@@ -7352,7 +7352,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>16</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>18</v>
       </c>
       <c r="E268">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G268">
         <v>0.4</v>
@@ -7378,7 +7378,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>16</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>18</v>
       </c>
       <c r="E269">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G269">
         <v>0.4</v>
@@ -7404,7 +7404,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>16</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>18</v>
       </c>
       <c r="E270">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G270">
         <v>0.4</v>
@@ -7430,7 +7430,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>16</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>18</v>
       </c>
       <c r="E271">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G271">
         <v>0.4</v>
@@ -7456,7 +7456,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>16</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>18</v>
       </c>
       <c r="E272">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G272">
         <v>0.4</v>
@@ -7496,7 +7496,7 @@
         <v>18</v>
       </c>
       <c r="E273">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G273">
         <v>0.4</v>
@@ -7522,7 +7522,7 @@
         <v>18</v>
       </c>
       <c r="E274">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G274">
         <v>0.4</v>
@@ -7548,7 +7548,7 @@
         <v>18</v>
       </c>
       <c r="E275">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G275">
         <v>0.4</v>
@@ -7574,7 +7574,7 @@
         <v>18</v>
       </c>
       <c r="E276">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G276">
         <v>0.4</v>
@@ -7600,7 +7600,7 @@
         <v>18</v>
       </c>
       <c r="E277">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G277">
         <v>0.4</v>
@@ -7626,7 +7626,7 @@
         <v>18</v>
       </c>
       <c r="E278">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G278">
         <v>0.4</v>
@@ -7652,7 +7652,7 @@
         <v>18</v>
       </c>
       <c r="E279">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G279">
         <v>0.4</v>
@@ -7678,7 +7678,7 @@
         <v>18</v>
       </c>
       <c r="E280">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G280">
         <v>0.4</v>
@@ -7704,7 +7704,7 @@
         <v>18</v>
       </c>
       <c r="E281">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G281">
         <v>0.4</v>
@@ -7730,7 +7730,7 @@
         <v>18</v>
       </c>
       <c r="E282">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G282">
         <v>0.4</v>
@@ -7756,7 +7756,7 @@
         <v>18</v>
       </c>
       <c r="E283">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G283">
         <v>0.4</v>
@@ -7782,7 +7782,7 @@
         <v>18</v>
       </c>
       <c r="E284">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G284">
         <v>0.4</v>
@@ -7808,7 +7808,7 @@
         <v>18</v>
       </c>
       <c r="E285">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G285">
         <v>0.4</v>
@@ -7834,7 +7834,7 @@
         <v>18</v>
       </c>
       <c r="E286">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G286">
         <v>0.4</v>
@@ -7854,16 +7854,16 @@
         <v>19</v>
       </c>
       <c r="C287" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D287" t="s">
         <v>18</v>
       </c>
       <c r="E287">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G287">
-        <v>0.02</v>
+        <v>0.4</v>
       </c>
       <c r="I287" t="s">
         <v>45</v>
@@ -7886,7 +7886,7 @@
         <v>18</v>
       </c>
       <c r="E288">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G288">
         <v>0.02</v>
@@ -7912,7 +7912,7 @@
         <v>18</v>
       </c>
       <c r="E289">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G289">
         <v>0.02</v>
@@ -7938,7 +7938,7 @@
         <v>18</v>
       </c>
       <c r="E290">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G290">
         <v>0.02</v>
@@ -7964,7 +7964,7 @@
         <v>18</v>
       </c>
       <c r="E291">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G291">
         <v>0.02</v>
@@ -7990,7 +7990,7 @@
         <v>18</v>
       </c>
       <c r="E292">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G292">
         <v>0.02</v>
@@ -8016,7 +8016,7 @@
         <v>18</v>
       </c>
       <c r="E293">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G293">
         <v>0.02</v>
@@ -8042,7 +8042,7 @@
         <v>18</v>
       </c>
       <c r="E294">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G294">
         <v>0.02</v>
@@ -8068,7 +8068,7 @@
         <v>18</v>
       </c>
       <c r="E295">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G295">
         <v>0.02</v>
@@ -8094,7 +8094,7 @@
         <v>18</v>
       </c>
       <c r="E296">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G296">
         <v>0.02</v>
@@ -8120,7 +8120,7 @@
         <v>18</v>
       </c>
       <c r="E297">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G297">
         <v>0.02</v>
@@ -8146,7 +8146,7 @@
         <v>18</v>
       </c>
       <c r="E298">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G298">
         <v>0.02</v>
@@ -8172,7 +8172,7 @@
         <v>18</v>
       </c>
       <c r="E299">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G299">
         <v>0.02</v>
@@ -8198,7 +8198,7 @@
         <v>18</v>
       </c>
       <c r="E300">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G300">
         <v>0.02</v>
@@ -8224,7 +8224,7 @@
         <v>18</v>
       </c>
       <c r="E301">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G301">
         <v>0.02</v>
@@ -8250,7 +8250,7 @@
         <v>18</v>
       </c>
       <c r="E302">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G302">
         <v>0.02</v>
@@ -8276,7 +8276,7 @@
         <v>18</v>
       </c>
       <c r="E303">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G303">
         <v>0.02</v>
@@ -8302,7 +8302,7 @@
         <v>18</v>
       </c>
       <c r="E304">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G304">
         <v>0.02</v>
@@ -8328,7 +8328,7 @@
         <v>18</v>
       </c>
       <c r="E305">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G305">
         <v>0.02</v>
@@ -8354,7 +8354,7 @@
         <v>18</v>
       </c>
       <c r="E306">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G306">
         <v>0.02</v>
@@ -8380,7 +8380,7 @@
         <v>18</v>
       </c>
       <c r="E307">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G307">
         <v>0.02</v>
@@ -8406,7 +8406,7 @@
         <v>18</v>
       </c>
       <c r="E308">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G308">
         <v>0.02</v>
@@ -8432,7 +8432,7 @@
         <v>18</v>
       </c>
       <c r="E309">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G309">
         <v>0.02</v>
@@ -8458,7 +8458,7 @@
         <v>18</v>
       </c>
       <c r="E310">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G310">
         <v>0.02</v>
@@ -8484,7 +8484,7 @@
         <v>18</v>
       </c>
       <c r="E311">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G311">
         <v>0.02</v>
@@ -8510,7 +8510,7 @@
         <v>18</v>
       </c>
       <c r="E312">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G312">
         <v>0.02</v>
@@ -8536,7 +8536,7 @@
         <v>18</v>
       </c>
       <c r="E313">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G313">
         <v>0.02</v>
@@ -8562,7 +8562,7 @@
         <v>18</v>
       </c>
       <c r="E314">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G314">
         <v>0.02</v>
@@ -8588,7 +8588,7 @@
         <v>18</v>
       </c>
       <c r="E315">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G315">
         <v>0.02</v>
@@ -8614,7 +8614,7 @@
         <v>18</v>
       </c>
       <c r="E316">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G316">
         <v>0.02</v>
@@ -8626,8 +8626,34 @@
         <v>46</v>
       </c>
     </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>16</v>
+      </c>
+      <c r="B317" t="s">
+        <v>19</v>
+      </c>
+      <c r="C317" t="s">
+        <v>43</v>
+      </c>
+      <c r="D317" t="s">
+        <v>18</v>
+      </c>
+      <c r="E317">
+        <v>2019</v>
+      </c>
+      <c r="G317">
+        <v>0.02</v>
+      </c>
+      <c r="I317" t="s">
+        <v>45</v>
+      </c>
+      <c r="J317" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A5:L573" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L574" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K8" r:id="rId1" xr:uid="{551E5581-983A-E74F-B049-6848A8895DFC}"/>

--- a/data/zenodo_ivan/storage/CHE_sto_pumpedhydro.xlsx
+++ b/data/zenodo_ivan/storage/CHE_sto_pumpedhydro.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/storage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94E4359-4F2E-7B4D-9435-85FE3943809E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BD8C72-CCC2-8943-A3EE-632A1EDFFDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="-4880" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$574</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$576</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="101">
   <si>
     <t>Name:</t>
   </si>
@@ -327,6 +327,15 @@
   </si>
   <si>
     <t>GW/TWh</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>configuration_fxe</t>
   </si>
 </sst>
 </file>
@@ -773,11 +782,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L317"/>
+  <dimension ref="A1:L319"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -879,10 +888,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s">
         <v>44</v>
@@ -890,12 +899,6 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="J7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -905,52 +908,44 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F8" t="s">
         <v>44</v>
       </c>
       <c r="G8">
-        <v>0.82</v>
-      </c>
-      <c r="J8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>26</v>
+      <c r="C9" t="s">
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>95</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>45</v>
-      </c>
       <c r="J9" t="s">
         <v>46</v>
       </c>
+      <c r="L9" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -960,16 +955,25 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>95</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
       </c>
       <c r="G10">
-        <v>1E-3</v>
-      </c>
-      <c r="H10" t="s">
-        <v>97</v>
+        <v>0.82</v>
+      </c>
+      <c r="J10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -979,48 +983,44 @@
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>27</v>
+      <c r="C11" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
       </c>
       <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>48</v>
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
       </c>
       <c r="I11" t="s">
         <v>45</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>28</v>
+      <c r="C12" t="s">
+        <v>96</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
       </c>
       <c r="G12">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" s="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1030,18 +1030,23 @@
         <v>19</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
       </c>
       <c r="G13">
-        <v>40</v>
-      </c>
-      <c r="H13" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1051,16 +1056,13 @@
         <v>19</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
       </c>
       <c r="G14">
-        <v>2500</v>
-      </c>
-      <c r="H14" t="s">
-        <v>50</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I14" t="s">
         <v>45</v>
@@ -1078,134 +1080,118 @@
         <v>19</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
       </c>
       <c r="G15">
+        <v>40</v>
+      </c>
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16">
+        <v>2500</v>
+      </c>
+      <c r="H16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17">
         <f>1840*1.3</f>
         <v>2392</v>
       </c>
-      <c r="H15" t="s">
-        <v>51</v>
-      </c>
-      <c r="J15" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15" s="3"/>
-      <c r="L15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16">
-        <v>0.9</v>
-      </c>
-      <c r="I16" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
+      <c r="H17" t="s">
+        <v>51</v>
       </c>
       <c r="J17" t="s">
         <v>46</v>
       </c>
       <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C18" t="s">
-        <v>34</v>
+      <c r="C18" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18">
-        <v>1990</v>
+        <v>24</v>
       </c>
       <c r="G18">
-        <v>1695</v>
-      </c>
-      <c r="H18" t="s">
-        <v>50</v>
+        <v>0.9</v>
       </c>
       <c r="I18" t="s">
         <v>45</v>
       </c>
       <c r="J18" t="s">
-        <v>57</v>
-      </c>
-      <c r="L18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
-        <v>34</v>
+      <c r="C19" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19">
-        <v>1991</v>
+        <v>24</v>
       </c>
       <c r="G19">
-        <v>1946</v>
-      </c>
-      <c r="H19" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>59</v>
-      </c>
-      <c r="L19" t="s">
-        <v>58</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -1221,10 +1207,10 @@
         <v>18</v>
       </c>
       <c r="E20">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G20">
-        <v>1438</v>
+        <v>1695</v>
       </c>
       <c r="H20" t="s">
         <v>50</v>
@@ -1233,7 +1219,7 @@
         <v>45</v>
       </c>
       <c r="J20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L20" t="s">
         <v>58</v>
@@ -1253,10 +1239,10 @@
         <v>18</v>
       </c>
       <c r="E21">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G21">
-        <v>1186</v>
+        <v>1946</v>
       </c>
       <c r="H21" t="s">
         <v>50</v>
@@ -1265,7 +1251,7 @@
         <v>45</v>
       </c>
       <c r="J21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L21" t="s">
         <v>58</v>
@@ -1285,10 +1271,10 @@
         <v>18</v>
       </c>
       <c r="E22">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G22">
-        <v>1271</v>
+        <v>1438</v>
       </c>
       <c r="H22" t="s">
         <v>50</v>
@@ -1297,7 +1283,7 @@
         <v>45</v>
       </c>
       <c r="J22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L22" t="s">
         <v>58</v>
@@ -1317,10 +1303,10 @@
         <v>18</v>
       </c>
       <c r="E23">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G23">
-        <v>1520</v>
+        <v>1186</v>
       </c>
       <c r="H23" t="s">
         <v>50</v>
@@ -1329,7 +1315,7 @@
         <v>45</v>
       </c>
       <c r="J23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L23" t="s">
         <v>58</v>
@@ -1349,10 +1335,10 @@
         <v>18</v>
       </c>
       <c r="E24">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G24">
-        <v>1754</v>
+        <v>1271</v>
       </c>
       <c r="H24" t="s">
         <v>50</v>
@@ -1361,7 +1347,7 @@
         <v>45</v>
       </c>
       <c r="J24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L24" t="s">
         <v>58</v>
@@ -1381,10 +1367,10 @@
         <v>18</v>
       </c>
       <c r="E25">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G25">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="H25" t="s">
         <v>50</v>
@@ -1393,7 +1379,7 @@
         <v>45</v>
       </c>
       <c r="J25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L25" t="s">
         <v>58</v>
@@ -1413,10 +1399,10 @@
         <v>18</v>
       </c>
       <c r="E26">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G26">
-        <v>1620</v>
+        <v>1754</v>
       </c>
       <c r="H26" t="s">
         <v>50</v>
@@ -1425,7 +1411,7 @@
         <v>45</v>
       </c>
       <c r="J26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L26" t="s">
         <v>58</v>
@@ -1445,10 +1431,10 @@
         <v>18</v>
       </c>
       <c r="E27">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G27">
-        <v>1408</v>
+        <v>1519</v>
       </c>
       <c r="H27" t="s">
         <v>50</v>
@@ -1457,7 +1443,7 @@
         <v>45</v>
       </c>
       <c r="J27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L27" t="s">
         <v>58</v>
@@ -1477,10 +1463,10 @@
         <v>18</v>
       </c>
       <c r="E28">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G28">
-        <v>1974</v>
+        <v>1620</v>
       </c>
       <c r="H28" t="s">
         <v>50</v>
@@ -1489,7 +1475,7 @@
         <v>45</v>
       </c>
       <c r="J28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L28" t="s">
         <v>58</v>
@@ -1509,10 +1495,10 @@
         <v>18</v>
       </c>
       <c r="E29">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G29">
-        <v>1947</v>
+        <v>1408</v>
       </c>
       <c r="H29" t="s">
         <v>50</v>
@@ -1521,7 +1507,7 @@
         <v>45</v>
       </c>
       <c r="J29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L29" t="s">
         <v>58</v>
@@ -1541,10 +1527,10 @@
         <v>18</v>
       </c>
       <c r="E30">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G30">
-        <v>2418</v>
+        <v>1974</v>
       </c>
       <c r="H30" t="s">
         <v>50</v>
@@ -1553,7 +1539,7 @@
         <v>45</v>
       </c>
       <c r="J30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L30" t="s">
         <v>58</v>
@@ -1573,10 +1559,10 @@
         <v>18</v>
       </c>
       <c r="E31">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G31">
-        <v>2893</v>
+        <v>1947</v>
       </c>
       <c r="H31" t="s">
         <v>50</v>
@@ -1585,7 +1571,7 @@
         <v>45</v>
       </c>
       <c r="J31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L31" t="s">
         <v>58</v>
@@ -1605,10 +1591,10 @@
         <v>18</v>
       </c>
       <c r="E32">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G32">
-        <v>2433</v>
+        <v>2418</v>
       </c>
       <c r="H32" t="s">
         <v>50</v>
@@ -1617,7 +1603,7 @@
         <v>45</v>
       </c>
       <c r="J32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L32" t="s">
         <v>58</v>
@@ -1637,10 +1623,10 @@
         <v>18</v>
       </c>
       <c r="E33">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G33">
-        <v>2631</v>
+        <v>2893</v>
       </c>
       <c r="H33" t="s">
         <v>50</v>
@@ -1649,7 +1635,7 @@
         <v>45</v>
       </c>
       <c r="J33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L33" t="s">
         <v>58</v>
@@ -1669,10 +1655,10 @@
         <v>18</v>
       </c>
       <c r="E34">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G34">
-        <v>2720</v>
+        <v>2433</v>
       </c>
       <c r="H34" t="s">
         <v>50</v>
@@ -1681,7 +1667,7 @@
         <v>45</v>
       </c>
       <c r="J34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L34" t="s">
         <v>58</v>
@@ -1701,10 +1687,10 @@
         <v>18</v>
       </c>
       <c r="E35">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G35">
-        <v>2104</v>
+        <v>2631</v>
       </c>
       <c r="H35" t="s">
         <v>50</v>
@@ -1713,7 +1699,7 @@
         <v>45</v>
       </c>
       <c r="J35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L35" t="s">
         <v>58</v>
@@ -1733,10 +1719,10 @@
         <v>18</v>
       </c>
       <c r="E36">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G36">
-        <v>2685</v>
+        <v>2720</v>
       </c>
       <c r="H36" t="s">
         <v>50</v>
@@ -1745,7 +1731,7 @@
         <v>45</v>
       </c>
       <c r="J36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L36" t="s">
         <v>58</v>
@@ -1765,10 +1751,10 @@
         <v>18</v>
       </c>
       <c r="E37">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G37">
-        <v>2523</v>
+        <v>2104</v>
       </c>
       <c r="H37" t="s">
         <v>50</v>
@@ -1777,7 +1763,7 @@
         <v>45</v>
       </c>
       <c r="J37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L37" t="s">
         <v>58</v>
@@ -1797,10 +1783,10 @@
         <v>18</v>
       </c>
       <c r="E38">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G38">
-        <v>2494</v>
+        <v>2685</v>
       </c>
       <c r="H38" t="s">
         <v>50</v>
@@ -1809,7 +1795,7 @@
         <v>45</v>
       </c>
       <c r="J38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L38" t="s">
         <v>58</v>
@@ -1829,10 +1815,10 @@
         <v>18</v>
       </c>
       <c r="E39">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G39">
-        <v>2466</v>
+        <v>2523</v>
       </c>
       <c r="H39" t="s">
         <v>50</v>
@@ -1841,7 +1827,7 @@
         <v>45</v>
       </c>
       <c r="J39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L39" t="s">
         <v>58</v>
@@ -1861,10 +1847,10 @@
         <v>18</v>
       </c>
       <c r="E40">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G40">
-        <v>2411</v>
+        <v>2494</v>
       </c>
       <c r="H40" t="s">
         <v>50</v>
@@ -1873,7 +1859,7 @@
         <v>45</v>
       </c>
       <c r="J40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L40" t="s">
         <v>58</v>
@@ -1893,10 +1879,10 @@
         <v>18</v>
       </c>
       <c r="E41">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G41">
-        <v>2132</v>
+        <v>2466</v>
       </c>
       <c r="H41" t="s">
         <v>50</v>
@@ -1905,7 +1891,7 @@
         <v>45</v>
       </c>
       <c r="J41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L41" t="s">
         <v>58</v>
@@ -1925,10 +1911,10 @@
         <v>18</v>
       </c>
       <c r="E42">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G42">
-        <v>2355</v>
+        <v>2411</v>
       </c>
       <c r="H42" t="s">
         <v>50</v>
@@ -1937,7 +1923,7 @@
         <v>45</v>
       </c>
       <c r="J42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L42" t="s">
         <v>58</v>
@@ -1957,10 +1943,10 @@
         <v>18</v>
       </c>
       <c r="E43">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G43">
-        <v>2296</v>
+        <v>2132</v>
       </c>
       <c r="H43" t="s">
         <v>50</v>
@@ -1969,7 +1955,7 @@
         <v>45</v>
       </c>
       <c r="J43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L43" t="s">
         <v>58</v>
@@ -1989,10 +1975,10 @@
         <v>18</v>
       </c>
       <c r="E44">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G44">
-        <v>2922</v>
+        <v>2355</v>
       </c>
       <c r="H44" t="s">
         <v>50</v>
@@ -2001,7 +1987,7 @@
         <v>45</v>
       </c>
       <c r="J44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L44" t="s">
         <v>58</v>
@@ -2021,10 +2007,10 @@
         <v>18</v>
       </c>
       <c r="E45">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G45">
-        <v>4160</v>
+        <v>2296</v>
       </c>
       <c r="H45" t="s">
         <v>50</v>
@@ -2033,7 +2019,7 @@
         <v>45</v>
       </c>
       <c r="J45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L45" t="s">
         <v>58</v>
@@ -2053,10 +2039,10 @@
         <v>18</v>
       </c>
       <c r="E46">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G46">
-        <v>3987</v>
+        <v>2922</v>
       </c>
       <c r="H46" t="s">
         <v>50</v>
@@ -2065,7 +2051,7 @@
         <v>45</v>
       </c>
       <c r="J46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L46" t="s">
         <v>58</v>
@@ -2085,10 +2071,10 @@
         <v>18</v>
       </c>
       <c r="E47">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G47">
-        <v>4133</v>
+        <v>4160</v>
       </c>
       <c r="H47" t="s">
         <v>50</v>
@@ -2097,7 +2083,7 @@
         <v>45</v>
       </c>
       <c r="J47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L47" t="s">
         <v>58</v>
@@ -2111,28 +2097,31 @@
         <v>19</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
       </c>
       <c r="E48">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G48">
-        <v>1770</v>
+        <v>3987</v>
       </c>
       <c r="H48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I48" t="s">
         <v>45</v>
       </c>
       <c r="J48" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="L48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -2140,25 +2129,31 @@
         <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
       </c>
       <c r="E49">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G49">
-        <v>1770</v>
+        <v>4133</v>
       </c>
       <c r="H49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I49" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J49" t="s">
+        <v>87</v>
+      </c>
+      <c r="L49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -2172,7 +2167,7 @@
         <v>18</v>
       </c>
       <c r="E50">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G50">
         <v>1770</v>
@@ -2183,8 +2178,11 @@
       <c r="I50" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -2198,7 +2196,7 @@
         <v>18</v>
       </c>
       <c r="E51">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G51">
         <v>1770</v>
@@ -2210,7 +2208,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -2224,7 +2222,7 @@
         <v>18</v>
       </c>
       <c r="E52">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G52">
         <v>1770</v>
@@ -2236,7 +2234,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -2250,7 +2248,7 @@
         <v>18</v>
       </c>
       <c r="E53">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G53">
         <v>1770</v>
@@ -2262,7 +2260,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>16</v>
       </c>
@@ -2276,7 +2274,7 @@
         <v>18</v>
       </c>
       <c r="E54">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G54">
         <v>1770</v>
@@ -2288,7 +2286,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -2302,7 +2300,7 @@
         <v>18</v>
       </c>
       <c r="E55">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G55">
         <v>1770</v>
@@ -2314,7 +2312,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -2328,7 +2326,7 @@
         <v>18</v>
       </c>
       <c r="E56">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G56">
         <v>1770</v>
@@ -2340,7 +2338,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -2354,7 +2352,7 @@
         <v>18</v>
       </c>
       <c r="E57">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G57">
         <v>1770</v>
@@ -2366,7 +2364,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -2380,10 +2378,10 @@
         <v>18</v>
       </c>
       <c r="E58">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G58">
-        <v>1760</v>
+        <v>1770</v>
       </c>
       <c r="H58" t="s">
         <v>51</v>
@@ -2391,11 +2389,8 @@
       <c r="I58" t="s">
         <v>45</v>
       </c>
-      <c r="J58" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -2409,10 +2404,10 @@
         <v>18</v>
       </c>
       <c r="E59">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G59">
-        <v>1760</v>
+        <v>1770</v>
       </c>
       <c r="H59" t="s">
         <v>51</v>
@@ -2421,7 +2416,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -2435,7 +2430,7 @@
         <v>18</v>
       </c>
       <c r="E60">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G60">
         <v>1760</v>
@@ -2446,8 +2441,11 @@
       <c r="I60" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -2461,7 +2459,7 @@
         <v>18</v>
       </c>
       <c r="E61">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G61">
         <v>1760</v>
@@ -2473,7 +2471,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -2487,7 +2485,7 @@
         <v>18</v>
       </c>
       <c r="E62">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G62">
         <v>1760</v>
@@ -2499,7 +2497,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -2513,10 +2511,10 @@
         <v>18</v>
       </c>
       <c r="E63">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G63">
-        <v>1700</v>
+        <v>1760</v>
       </c>
       <c r="H63" t="s">
         <v>51</v>
@@ -2524,11 +2522,8 @@
       <c r="I63" t="s">
         <v>45</v>
       </c>
-      <c r="J63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -2542,10 +2537,10 @@
         <v>18</v>
       </c>
       <c r="E64">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G64">
-        <v>1700</v>
+        <v>1760</v>
       </c>
       <c r="H64" t="s">
         <v>51</v>
@@ -2568,7 +2563,7 @@
         <v>18</v>
       </c>
       <c r="E65">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G65">
         <v>1700</v>
@@ -2579,6 +2574,9 @@
       <c r="I65" t="s">
         <v>45</v>
       </c>
+      <c r="J65" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
@@ -2594,7 +2592,7 @@
         <v>18</v>
       </c>
       <c r="E66">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G66">
         <v>1700</v>
@@ -2620,7 +2618,7 @@
         <v>18</v>
       </c>
       <c r="E67">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G67">
         <v>1700</v>
@@ -2646,19 +2644,16 @@
         <v>18</v>
       </c>
       <c r="E68">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G68">
-        <v>1840</v>
+        <v>1700</v>
       </c>
       <c r="H68" t="s">
         <v>51</v>
       </c>
       <c r="I68" t="s">
         <v>45</v>
-      </c>
-      <c r="J68" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -2675,19 +2670,16 @@
         <v>18</v>
       </c>
       <c r="E69">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G69">
-        <v>1840</v>
+        <v>1700</v>
       </c>
       <c r="H69" t="s">
         <v>51</v>
       </c>
       <c r="I69" t="s">
         <v>45</v>
-      </c>
-      <c r="J69" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -2704,7 +2696,7 @@
         <v>18</v>
       </c>
       <c r="E70">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G70">
         <v>1840</v>
@@ -2733,7 +2725,7 @@
         <v>18</v>
       </c>
       <c r="E71">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G71">
         <v>1840</v>
@@ -2762,7 +2754,7 @@
         <v>18</v>
       </c>
       <c r="E72">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G72">
         <v>1840</v>
@@ -2791,7 +2783,7 @@
         <v>18</v>
       </c>
       <c r="E73">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G73">
         <v>1840</v>
@@ -2802,6 +2794,9 @@
       <c r="I73" t="s">
         <v>45</v>
       </c>
+      <c r="J73" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
@@ -2817,7 +2812,7 @@
         <v>18</v>
       </c>
       <c r="E74">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G74">
         <v>1840</v>
@@ -2828,6 +2823,9 @@
       <c r="I74" t="s">
         <v>45</v>
       </c>
+      <c r="J74" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
@@ -2843,7 +2841,7 @@
         <v>18</v>
       </c>
       <c r="E75">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G75">
         <v>1840</v>
@@ -2869,7 +2867,7 @@
         <v>18</v>
       </c>
       <c r="E76">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G76">
         <v>1840</v>
@@ -2895,7 +2893,7 @@
         <v>18</v>
       </c>
       <c r="E77">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G77">
         <v>1840</v>
@@ -2915,25 +2913,22 @@
         <v>19</v>
       </c>
       <c r="C78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D78" t="s">
         <v>18</v>
       </c>
       <c r="E78">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>1840</v>
       </c>
       <c r="H78" t="s">
         <v>51</v>
       </c>
       <c r="I78" t="s">
         <v>45</v>
-      </c>
-      <c r="L78" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -2944,25 +2939,22 @@
         <v>19</v>
       </c>
       <c r="C79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
       </c>
       <c r="E79">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>1840</v>
       </c>
       <c r="H79" t="s">
         <v>51</v>
       </c>
       <c r="I79" t="s">
         <v>45</v>
-      </c>
-      <c r="L79" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -2979,7 +2971,7 @@
         <v>18</v>
       </c>
       <c r="E80">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -3008,7 +3000,7 @@
         <v>18</v>
       </c>
       <c r="E81">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -3037,7 +3029,7 @@
         <v>18</v>
       </c>
       <c r="E82">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -3066,7 +3058,7 @@
         <v>18</v>
       </c>
       <c r="E83">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -3095,7 +3087,7 @@
         <v>18</v>
       </c>
       <c r="E84">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -3124,7 +3116,7 @@
         <v>18</v>
       </c>
       <c r="E85">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -3153,7 +3145,7 @@
         <v>18</v>
       </c>
       <c r="E86">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -3182,7 +3174,7 @@
         <v>18</v>
       </c>
       <c r="E87">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -3211,7 +3203,7 @@
         <v>18</v>
       </c>
       <c r="E88">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3240,7 +3232,7 @@
         <v>18</v>
       </c>
       <c r="E89">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -3269,7 +3261,7 @@
         <v>18</v>
       </c>
       <c r="E90">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3298,7 +3290,7 @@
         <v>18</v>
       </c>
       <c r="E91">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -3327,7 +3319,7 @@
         <v>18</v>
       </c>
       <c r="E92">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -3356,7 +3348,7 @@
         <v>18</v>
       </c>
       <c r="E93">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3385,7 +3377,7 @@
         <v>18</v>
       </c>
       <c r="E94">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -3414,7 +3406,7 @@
         <v>18</v>
       </c>
       <c r="E95">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3443,7 +3435,7 @@
         <v>18</v>
       </c>
       <c r="E96">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -3472,7 +3464,7 @@
         <v>18</v>
       </c>
       <c r="E97">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -3501,10 +3493,10 @@
         <v>18</v>
       </c>
       <c r="E98">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G98">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="H98" t="s">
         <v>51</v>
@@ -3530,7 +3522,7 @@
         <v>18</v>
       </c>
       <c r="E99">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -3559,10 +3551,10 @@
         <v>18</v>
       </c>
       <c r="E100">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="H100" t="s">
         <v>51</v>
@@ -3588,7 +3580,7 @@
         <v>18</v>
       </c>
       <c r="E101">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -3617,7 +3609,7 @@
         <v>18</v>
       </c>
       <c r="E102">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -3646,7 +3638,7 @@
         <v>18</v>
       </c>
       <c r="E103">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -3675,7 +3667,7 @@
         <v>18</v>
       </c>
       <c r="E104">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -3704,7 +3696,7 @@
         <v>18</v>
       </c>
       <c r="E105">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -3733,7 +3725,7 @@
         <v>18</v>
       </c>
       <c r="E106">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3762,7 +3754,7 @@
         <v>18</v>
       </c>
       <c r="E107">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -3785,13 +3777,13 @@
         <v>19</v>
       </c>
       <c r="C108" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D108" t="s">
         <v>18</v>
       </c>
       <c r="E108">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3814,13 +3806,13 @@
         <v>19</v>
       </c>
       <c r="C109" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D109" t="s">
         <v>18</v>
       </c>
       <c r="E109">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3849,7 +3841,7 @@
         <v>18</v>
       </c>
       <c r="E110">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -3878,7 +3870,7 @@
         <v>18</v>
       </c>
       <c r="E111">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3907,7 +3899,7 @@
         <v>18</v>
       </c>
       <c r="E112">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3936,7 +3928,7 @@
         <v>18</v>
       </c>
       <c r="E113">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3965,7 +3957,7 @@
         <v>18</v>
       </c>
       <c r="E114">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3994,7 +3986,7 @@
         <v>18</v>
       </c>
       <c r="E115">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -4023,7 +4015,7 @@
         <v>18</v>
       </c>
       <c r="E116">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -4052,7 +4044,7 @@
         <v>18</v>
       </c>
       <c r="E117">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -4081,10 +4073,10 @@
         <v>18</v>
       </c>
       <c r="E118">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G118">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H118" t="s">
         <v>51</v>
@@ -4110,7 +4102,7 @@
         <v>18</v>
       </c>
       <c r="E119">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -4139,10 +4131,10 @@
         <v>18</v>
       </c>
       <c r="E120">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H120" t="s">
         <v>51</v>
@@ -4168,7 +4160,7 @@
         <v>18</v>
       </c>
       <c r="E121">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4197,7 +4189,7 @@
         <v>18</v>
       </c>
       <c r="E122">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -4226,10 +4218,10 @@
         <v>18</v>
       </c>
       <c r="E123">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G123">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H123" t="s">
         <v>51</v>
@@ -4255,7 +4247,7 @@
         <v>18</v>
       </c>
       <c r="E124">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4284,10 +4276,10 @@
         <v>18</v>
       </c>
       <c r="E125">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H125" t="s">
         <v>51</v>
@@ -4313,7 +4305,7 @@
         <v>18</v>
       </c>
       <c r="E126">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4342,7 +4334,7 @@
         <v>18</v>
       </c>
       <c r="E127">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -4371,7 +4363,7 @@
         <v>18</v>
       </c>
       <c r="E128">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -4400,7 +4392,7 @@
         <v>18</v>
       </c>
       <c r="E129">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -4429,7 +4421,7 @@
         <v>18</v>
       </c>
       <c r="E130">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4458,7 +4450,7 @@
         <v>18</v>
       </c>
       <c r="E131">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -4487,7 +4479,7 @@
         <v>18</v>
       </c>
       <c r="E132">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -4516,7 +4508,7 @@
         <v>18</v>
       </c>
       <c r="E133">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -4545,7 +4537,7 @@
         <v>18</v>
       </c>
       <c r="E134">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -4574,7 +4566,7 @@
         <v>18</v>
       </c>
       <c r="E135">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -4603,7 +4595,7 @@
         <v>18</v>
       </c>
       <c r="E136">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -4632,7 +4624,7 @@
         <v>18</v>
       </c>
       <c r="E137">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -4655,13 +4647,25 @@
         <v>19</v>
       </c>
       <c r="C138" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D138" t="s">
         <v>18</v>
       </c>
       <c r="E138">
-        <v>1990</v>
+        <v>2018</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138" t="s">
+        <v>51</v>
+      </c>
+      <c r="I138" t="s">
+        <v>45</v>
+      </c>
+      <c r="L138" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -4672,13 +4676,25 @@
         <v>19</v>
       </c>
       <c r="C139" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D139" t="s">
         <v>18</v>
       </c>
       <c r="E139">
-        <v>1991</v>
+        <v>2019</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139" t="s">
+        <v>51</v>
+      </c>
+      <c r="I139" t="s">
+        <v>45</v>
+      </c>
+      <c r="L139" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -4695,7 +4711,7 @@
         <v>18</v>
       </c>
       <c r="E140">
-        <v>1992</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -4712,7 +4728,7 @@
         <v>18</v>
       </c>
       <c r="E141">
-        <v>1993</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
@@ -4729,7 +4745,7 @@
         <v>18</v>
       </c>
       <c r="E142">
-        <v>1994</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
@@ -4746,7 +4762,7 @@
         <v>18</v>
       </c>
       <c r="E143">
-        <v>1995</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
@@ -4763,10 +4779,10 @@
         <v>18</v>
       </c>
       <c r="E144">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>16</v>
       </c>
@@ -4780,10 +4796,10 @@
         <v>18</v>
       </c>
       <c r="E145">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>16</v>
       </c>
@@ -4797,10 +4813,10 @@
         <v>18</v>
       </c>
       <c r="E146">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>16</v>
       </c>
@@ -4814,10 +4830,10 @@
         <v>18</v>
       </c>
       <c r="E147">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>16</v>
       </c>
@@ -4831,10 +4847,10 @@
         <v>18</v>
       </c>
       <c r="E148">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>16</v>
       </c>
@@ -4848,10 +4864,10 @@
         <v>18</v>
       </c>
       <c r="E149">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>16</v>
       </c>
@@ -4865,10 +4881,10 @@
         <v>18</v>
       </c>
       <c r="E150">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>16</v>
       </c>
@@ -4882,10 +4898,10 @@
         <v>18</v>
       </c>
       <c r="E151">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>16</v>
       </c>
@@ -4899,10 +4915,10 @@
         <v>18</v>
       </c>
       <c r="E152">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>16</v>
       </c>
@@ -4916,10 +4932,10 @@
         <v>18</v>
       </c>
       <c r="E153">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>16</v>
       </c>
@@ -4933,10 +4949,10 @@
         <v>18</v>
       </c>
       <c r="E154">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>16</v>
       </c>
@@ -4950,10 +4966,10 @@
         <v>18</v>
       </c>
       <c r="E155">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>16</v>
       </c>
@@ -4967,10 +4983,10 @@
         <v>18</v>
       </c>
       <c r="E156">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>16</v>
       </c>
@@ -4984,10 +5000,10 @@
         <v>18</v>
       </c>
       <c r="E157">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>16</v>
       </c>
@@ -5001,10 +5017,10 @@
         <v>18</v>
       </c>
       <c r="E158">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>16</v>
       </c>
@@ -5018,25 +5034,10 @@
         <v>18</v>
       </c>
       <c r="E159">
-        <v>2011</v>
-      </c>
-      <c r="G159">
-        <v>33.53</v>
-      </c>
-      <c r="H159" t="s">
-        <v>90</v>
-      </c>
-      <c r="I159" t="s">
-        <v>45</v>
-      </c>
-      <c r="J159" t="s">
-        <v>91</v>
-      </c>
-      <c r="L159" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>16</v>
       </c>
@@ -5050,10 +5051,10 @@
         <v>18</v>
       </c>
       <c r="E160">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>16</v>
       </c>
@@ -5067,10 +5068,25 @@
         <v>18</v>
       </c>
       <c r="E161">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2011</v>
+      </c>
+      <c r="G161">
+        <v>33.53</v>
+      </c>
+      <c r="H161" t="s">
+        <v>90</v>
+      </c>
+      <c r="I161" t="s">
+        <v>45</v>
+      </c>
+      <c r="J161" t="s">
+        <v>91</v>
+      </c>
+      <c r="L161" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>16</v>
       </c>
@@ -5084,10 +5100,10 @@
         <v>18</v>
       </c>
       <c r="E162">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>16</v>
       </c>
@@ -5101,10 +5117,10 @@
         <v>18</v>
       </c>
       <c r="E163">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>16</v>
       </c>
@@ -5118,10 +5134,10 @@
         <v>18</v>
       </c>
       <c r="E164">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>16</v>
       </c>
@@ -5135,10 +5151,10 @@
         <v>18</v>
       </c>
       <c r="E165">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>16</v>
       </c>
@@ -5152,10 +5168,10 @@
         <v>18</v>
       </c>
       <c r="E166">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>16</v>
       </c>
@@ -5169,44 +5185,44 @@
         <v>18</v>
       </c>
       <c r="E167">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>16</v>
+      </c>
+      <c r="B168" t="s">
+        <v>19</v>
+      </c>
+      <c r="C168" t="s">
+        <v>38</v>
+      </c>
+      <c r="D168" t="s">
+        <v>18</v>
+      </c>
+      <c r="E168">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>16</v>
+      </c>
+      <c r="B169" t="s">
+        <v>19</v>
+      </c>
+      <c r="C169" t="s">
+        <v>38</v>
+      </c>
+      <c r="D169" t="s">
+        <v>18</v>
+      </c>
+      <c r="E169">
         <v>2019</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>16</v>
-      </c>
-      <c r="B168" t="s">
-        <v>19</v>
-      </c>
-      <c r="C168" t="s">
-        <v>39</v>
-      </c>
-      <c r="D168" t="s">
-        <v>18</v>
-      </c>
-      <c r="E168">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>16</v>
-      </c>
-      <c r="B169" t="s">
-        <v>19</v>
-      </c>
-      <c r="C169" t="s">
-        <v>39</v>
-      </c>
-      <c r="D169" t="s">
-        <v>18</v>
-      </c>
-      <c r="E169">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>16</v>
       </c>
@@ -5220,10 +5236,10 @@
         <v>18</v>
       </c>
       <c r="E170">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>16</v>
       </c>
@@ -5237,10 +5253,10 @@
         <v>18</v>
       </c>
       <c r="E171">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>16</v>
       </c>
@@ -5254,10 +5270,10 @@
         <v>18</v>
       </c>
       <c r="E172">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>16</v>
       </c>
@@ -5271,10 +5287,10 @@
         <v>18</v>
       </c>
       <c r="E173">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>16</v>
       </c>
@@ -5288,10 +5304,10 @@
         <v>18</v>
       </c>
       <c r="E174">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>16</v>
       </c>
@@ -5305,10 +5321,10 @@
         <v>18</v>
       </c>
       <c r="E175">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>16</v>
       </c>
@@ -5322,7 +5338,7 @@
         <v>18</v>
       </c>
       <c r="E176">
-        <v>1998</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
@@ -5339,7 +5355,7 @@
         <v>18</v>
       </c>
       <c r="E177">
-        <v>1999</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
@@ -5356,7 +5372,7 @@
         <v>18</v>
       </c>
       <c r="E178">
-        <v>2000</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
@@ -5373,7 +5389,7 @@
         <v>18</v>
       </c>
       <c r="E179">
-        <v>2001</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
@@ -5390,7 +5406,7 @@
         <v>18</v>
       </c>
       <c r="E180">
-        <v>2002</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
@@ -5407,7 +5423,7 @@
         <v>18</v>
       </c>
       <c r="E181">
-        <v>2003</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
@@ -5424,7 +5440,7 @@
         <v>18</v>
       </c>
       <c r="E182">
-        <v>2004</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
@@ -5441,7 +5457,7 @@
         <v>18</v>
       </c>
       <c r="E183">
-        <v>2005</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
@@ -5458,7 +5474,7 @@
         <v>18</v>
       </c>
       <c r="E184">
-        <v>2006</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
@@ -5475,7 +5491,7 @@
         <v>18</v>
       </c>
       <c r="E185">
-        <v>2007</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
@@ -5492,7 +5508,7 @@
         <v>18</v>
       </c>
       <c r="E186">
-        <v>2008</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
@@ -5509,7 +5525,7 @@
         <v>18</v>
       </c>
       <c r="E187">
-        <v>2009</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
@@ -5526,7 +5542,7 @@
         <v>18</v>
       </c>
       <c r="E188">
-        <v>2010</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
@@ -5543,22 +5559,7 @@
         <v>18</v>
       </c>
       <c r="E189">
-        <v>2011</v>
-      </c>
-      <c r="G189">
-        <v>1869</v>
-      </c>
-      <c r="H189" t="s">
-        <v>90</v>
-      </c>
-      <c r="I189" t="s">
-        <v>45</v>
-      </c>
-      <c r="J189" t="s">
-        <v>91</v>
-      </c>
-      <c r="L189" t="s">
-        <v>92</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
@@ -5575,7 +5576,7 @@
         <v>18</v>
       </c>
       <c r="E190">
-        <v>2012</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
@@ -5592,7 +5593,22 @@
         <v>18</v>
       </c>
       <c r="E191">
-        <v>2013</v>
+        <v>2011</v>
+      </c>
+      <c r="G191">
+        <v>1869</v>
+      </c>
+      <c r="H191" t="s">
+        <v>90</v>
+      </c>
+      <c r="I191" t="s">
+        <v>45</v>
+      </c>
+      <c r="J191" t="s">
+        <v>91</v>
+      </c>
+      <c r="L191" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
@@ -5609,7 +5625,7 @@
         <v>18</v>
       </c>
       <c r="E192">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
@@ -5626,7 +5642,7 @@
         <v>18</v>
       </c>
       <c r="E193">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
@@ -5643,7 +5659,7 @@
         <v>18</v>
       </c>
       <c r="E194">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -5660,7 +5676,7 @@
         <v>18</v>
       </c>
       <c r="E195">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -5677,7 +5693,7 @@
         <v>18</v>
       </c>
       <c r="E196">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -5694,7 +5710,7 @@
         <v>18</v>
       </c>
       <c r="E197">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
@@ -5705,13 +5721,13 @@
         <v>19</v>
       </c>
       <c r="C198" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D198" t="s">
         <v>18</v>
       </c>
       <c r="E198">
-        <v>1990</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
@@ -5722,13 +5738,13 @@
         <v>19</v>
       </c>
       <c r="C199" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D199" t="s">
         <v>18</v>
       </c>
       <c r="E199">
-        <v>1991</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
@@ -5745,7 +5761,7 @@
         <v>18</v>
       </c>
       <c r="E200">
-        <v>1992</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
@@ -5762,7 +5778,7 @@
         <v>18</v>
       </c>
       <c r="E201">
-        <v>1993</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
@@ -5779,7 +5795,7 @@
         <v>18</v>
       </c>
       <c r="E202">
-        <v>1994</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
@@ -5796,7 +5812,7 @@
         <v>18</v>
       </c>
       <c r="E203">
-        <v>1995</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
@@ -5813,7 +5829,7 @@
         <v>18</v>
       </c>
       <c r="E204">
-        <v>1996</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
@@ -5830,7 +5846,7 @@
         <v>18</v>
       </c>
       <c r="E205">
-        <v>1997</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
@@ -5847,7 +5863,7 @@
         <v>18</v>
       </c>
       <c r="E206">
-        <v>1998</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
@@ -5864,7 +5880,7 @@
         <v>18</v>
       </c>
       <c r="E207">
-        <v>1999</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
@@ -5881,7 +5897,7 @@
         <v>18</v>
       </c>
       <c r="E208">
-        <v>2000</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
@@ -5898,7 +5914,7 @@
         <v>18</v>
       </c>
       <c r="E209">
-        <v>2001</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
@@ -5915,7 +5931,7 @@
         <v>18</v>
       </c>
       <c r="E210">
-        <v>2002</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
@@ -5932,7 +5948,7 @@
         <v>18</v>
       </c>
       <c r="E211">
-        <v>2003</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.2">
@@ -5949,7 +5965,7 @@
         <v>18</v>
       </c>
       <c r="E212">
-        <v>2004</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
@@ -5966,7 +5982,7 @@
         <v>18</v>
       </c>
       <c r="E213">
-        <v>2005</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
@@ -5983,7 +5999,7 @@
         <v>18</v>
       </c>
       <c r="E214">
-        <v>2006</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
@@ -6000,7 +6016,7 @@
         <v>18</v>
       </c>
       <c r="E215">
-        <v>2007</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
@@ -6017,7 +6033,7 @@
         <v>18</v>
       </c>
       <c r="E216">
-        <v>2008</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
@@ -6034,7 +6050,7 @@
         <v>18</v>
       </c>
       <c r="E217">
-        <v>2009</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
@@ -6051,7 +6067,7 @@
         <v>18</v>
       </c>
       <c r="E218">
-        <v>2010</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
@@ -6068,22 +6084,7 @@
         <v>18</v>
       </c>
       <c r="E219">
-        <v>2011</v>
-      </c>
-      <c r="G219">
-        <v>0</v>
-      </c>
-      <c r="H219" t="s">
-        <v>93</v>
-      </c>
-      <c r="I219" t="s">
-        <v>45</v>
-      </c>
-      <c r="J219" t="s">
-        <v>91</v>
-      </c>
-      <c r="L219" t="s">
-        <v>92</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.2">
@@ -6100,7 +6101,7 @@
         <v>18</v>
       </c>
       <c r="E220">
-        <v>2012</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.2">
@@ -6117,7 +6118,22 @@
         <v>18</v>
       </c>
       <c r="E221">
-        <v>2013</v>
+        <v>2011</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+      <c r="H221" t="s">
+        <v>93</v>
+      </c>
+      <c r="I221" t="s">
+        <v>45</v>
+      </c>
+      <c r="J221" t="s">
+        <v>91</v>
+      </c>
+      <c r="L221" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
@@ -6134,7 +6150,7 @@
         <v>18</v>
       </c>
       <c r="E222">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
@@ -6151,7 +6167,7 @@
         <v>18</v>
       </c>
       <c r="E223">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.2">
@@ -6168,7 +6184,7 @@
         <v>18</v>
       </c>
       <c r="E224">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
@@ -6185,7 +6201,7 @@
         <v>18</v>
       </c>
       <c r="E225">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
@@ -6202,7 +6218,7 @@
         <v>18</v>
       </c>
       <c r="E226">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
@@ -6219,7 +6235,7 @@
         <v>18</v>
       </c>
       <c r="E227">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
@@ -6230,25 +6246,13 @@
         <v>19</v>
       </c>
       <c r="C228" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D228" t="s">
         <v>18</v>
       </c>
       <c r="E228">
-        <v>1990</v>
-      </c>
-      <c r="G228">
-        <v>0</v>
-      </c>
-      <c r="H228" t="s">
-        <v>51</v>
-      </c>
-      <c r="I228" t="s">
-        <v>45</v>
-      </c>
-      <c r="L228" t="s">
-        <v>94</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
@@ -6259,25 +6263,13 @@
         <v>19</v>
       </c>
       <c r="C229" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D229" t="s">
         <v>18</v>
       </c>
       <c r="E229">
-        <v>1991</v>
-      </c>
-      <c r="G229">
-        <v>0</v>
-      </c>
-      <c r="H229" t="s">
-        <v>51</v>
-      </c>
-      <c r="I229" t="s">
-        <v>45</v>
-      </c>
-      <c r="L229" t="s">
-        <v>94</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
@@ -6294,7 +6286,7 @@
         <v>18</v>
       </c>
       <c r="E230">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -6323,7 +6315,7 @@
         <v>18</v>
       </c>
       <c r="E231">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -6352,7 +6344,7 @@
         <v>18</v>
       </c>
       <c r="E232">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -6381,7 +6373,7 @@
         <v>18</v>
       </c>
       <c r="E233">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -6410,7 +6402,7 @@
         <v>18</v>
       </c>
       <c r="E234">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -6439,7 +6431,7 @@
         <v>18</v>
       </c>
       <c r="E235">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -6468,7 +6460,7 @@
         <v>18</v>
       </c>
       <c r="E236">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -6497,7 +6489,7 @@
         <v>18</v>
       </c>
       <c r="E237">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -6526,10 +6518,10 @@
         <v>18</v>
       </c>
       <c r="E238">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G238">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H238" t="s">
         <v>51</v>
@@ -6555,7 +6547,7 @@
         <v>18</v>
       </c>
       <c r="E239">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -6584,10 +6576,10 @@
         <v>18</v>
       </c>
       <c r="E240">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G240">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H240" t="s">
         <v>51</v>
@@ -6613,7 +6605,7 @@
         <v>18</v>
       </c>
       <c r="E241">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -6642,7 +6634,7 @@
         <v>18</v>
       </c>
       <c r="E242">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -6671,10 +6663,10 @@
         <v>18</v>
       </c>
       <c r="E243">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G243">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H243" t="s">
         <v>51</v>
@@ -6700,7 +6692,7 @@
         <v>18</v>
       </c>
       <c r="E244">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -6729,10 +6721,10 @@
         <v>18</v>
       </c>
       <c r="E245">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G245">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H245" t="s">
         <v>51</v>
@@ -6758,7 +6750,7 @@
         <v>18</v>
       </c>
       <c r="E246">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -6787,7 +6779,7 @@
         <v>18</v>
       </c>
       <c r="E247">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -6816,7 +6808,7 @@
         <v>18</v>
       </c>
       <c r="E248">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -6845,7 +6837,7 @@
         <v>18</v>
       </c>
       <c r="E249">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -6874,7 +6866,7 @@
         <v>18</v>
       </c>
       <c r="E250">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -6903,7 +6895,7 @@
         <v>18</v>
       </c>
       <c r="E251">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -6932,7 +6924,7 @@
         <v>18</v>
       </c>
       <c r="E252">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -6961,7 +6953,7 @@
         <v>18</v>
       </c>
       <c r="E253">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -6990,7 +6982,7 @@
         <v>18</v>
       </c>
       <c r="E254">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -7019,7 +7011,7 @@
         <v>18</v>
       </c>
       <c r="E255">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -7048,7 +7040,7 @@
         <v>18</v>
       </c>
       <c r="E256">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -7077,7 +7069,7 @@
         <v>18</v>
       </c>
       <c r="E257">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -7100,22 +7092,25 @@
         <v>19</v>
       </c>
       <c r="C258" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D258" t="s">
         <v>18</v>
       </c>
       <c r="E258">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G258">
-        <v>0.4</v>
+        <v>0</v>
+      </c>
+      <c r="H258" t="s">
+        <v>51</v>
       </c>
       <c r="I258" t="s">
         <v>45</v>
       </c>
-      <c r="J258" t="s">
-        <v>46</v>
+      <c r="L258" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
@@ -7126,22 +7121,25 @@
         <v>19</v>
       </c>
       <c r="C259" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D259" t="s">
         <v>18</v>
       </c>
       <c r="E259">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G259">
-        <v>0.4</v>
+        <v>0</v>
+      </c>
+      <c r="H259" t="s">
+        <v>51</v>
       </c>
       <c r="I259" t="s">
         <v>45</v>
       </c>
-      <c r="J259" t="s">
-        <v>46</v>
+      <c r="L259" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
@@ -7158,7 +7156,7 @@
         <v>18</v>
       </c>
       <c r="E260">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G260">
         <v>0.4</v>
@@ -7184,7 +7182,7 @@
         <v>18</v>
       </c>
       <c r="E261">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G261">
         <v>0.4</v>
@@ -7210,7 +7208,7 @@
         <v>18</v>
       </c>
       <c r="E262">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G262">
         <v>0.4</v>
@@ -7236,7 +7234,7 @@
         <v>18</v>
       </c>
       <c r="E263">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G263">
         <v>0.4</v>
@@ -7262,7 +7260,7 @@
         <v>18</v>
       </c>
       <c r="E264">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G264">
         <v>0.4</v>
@@ -7288,7 +7286,7 @@
         <v>18</v>
       </c>
       <c r="E265">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G265">
         <v>0.4</v>
@@ -7314,7 +7312,7 @@
         <v>18</v>
       </c>
       <c r="E266">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G266">
         <v>0.4</v>
@@ -7340,7 +7338,7 @@
         <v>18</v>
       </c>
       <c r="E267">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G267">
         <v>0.4</v>
@@ -7366,7 +7364,7 @@
         <v>18</v>
       </c>
       <c r="E268">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G268">
         <v>0.4</v>
@@ -7392,7 +7390,7 @@
         <v>18</v>
       </c>
       <c r="E269">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G269">
         <v>0.4</v>
@@ -7418,7 +7416,7 @@
         <v>18</v>
       </c>
       <c r="E270">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G270">
         <v>0.4</v>
@@ -7444,7 +7442,7 @@
         <v>18</v>
       </c>
       <c r="E271">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G271">
         <v>0.4</v>
@@ -7470,7 +7468,7 @@
         <v>18</v>
       </c>
       <c r="E272">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G272">
         <v>0.4</v>
@@ -7496,7 +7494,7 @@
         <v>18</v>
       </c>
       <c r="E273">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G273">
         <v>0.4</v>
@@ -7522,7 +7520,7 @@
         <v>18</v>
       </c>
       <c r="E274">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G274">
         <v>0.4</v>
@@ -7548,7 +7546,7 @@
         <v>18</v>
       </c>
       <c r="E275">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G275">
         <v>0.4</v>
@@ -7574,7 +7572,7 @@
         <v>18</v>
       </c>
       <c r="E276">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G276">
         <v>0.4</v>
@@ -7600,7 +7598,7 @@
         <v>18</v>
       </c>
       <c r="E277">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G277">
         <v>0.4</v>
@@ -7626,7 +7624,7 @@
         <v>18</v>
       </c>
       <c r="E278">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G278">
         <v>0.4</v>
@@ -7652,7 +7650,7 @@
         <v>18</v>
       </c>
       <c r="E279">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G279">
         <v>0.4</v>
@@ -7678,7 +7676,7 @@
         <v>18</v>
       </c>
       <c r="E280">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G280">
         <v>0.4</v>
@@ -7704,7 +7702,7 @@
         <v>18</v>
       </c>
       <c r="E281">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G281">
         <v>0.4</v>
@@ -7730,7 +7728,7 @@
         <v>18</v>
       </c>
       <c r="E282">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G282">
         <v>0.4</v>
@@ -7756,7 +7754,7 @@
         <v>18</v>
       </c>
       <c r="E283">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G283">
         <v>0.4</v>
@@ -7782,7 +7780,7 @@
         <v>18</v>
       </c>
       <c r="E284">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G284">
         <v>0.4</v>
@@ -7808,7 +7806,7 @@
         <v>18</v>
       </c>
       <c r="E285">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G285">
         <v>0.4</v>
@@ -7834,7 +7832,7 @@
         <v>18</v>
       </c>
       <c r="E286">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G286">
         <v>0.4</v>
@@ -7860,7 +7858,7 @@
         <v>18</v>
       </c>
       <c r="E287">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G287">
         <v>0.4</v>
@@ -7880,16 +7878,16 @@
         <v>19</v>
       </c>
       <c r="C288" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D288" t="s">
         <v>18</v>
       </c>
       <c r="E288">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G288">
-        <v>0.02</v>
+        <v>0.4</v>
       </c>
       <c r="I288" t="s">
         <v>45</v>
@@ -7906,16 +7904,16 @@
         <v>19</v>
       </c>
       <c r="C289" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D289" t="s">
         <v>18</v>
       </c>
       <c r="E289">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G289">
-        <v>0.02</v>
+        <v>0.4</v>
       </c>
       <c r="I289" t="s">
         <v>45</v>
@@ -7938,7 +7936,7 @@
         <v>18</v>
       </c>
       <c r="E290">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G290">
         <v>0.02</v>
@@ -7964,7 +7962,7 @@
         <v>18</v>
       </c>
       <c r="E291">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G291">
         <v>0.02</v>
@@ -7990,7 +7988,7 @@
         <v>18</v>
       </c>
       <c r="E292">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G292">
         <v>0.02</v>
@@ -8016,7 +8014,7 @@
         <v>18</v>
       </c>
       <c r="E293">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G293">
         <v>0.02</v>
@@ -8042,7 +8040,7 @@
         <v>18</v>
       </c>
       <c r="E294">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G294">
         <v>0.02</v>
@@ -8068,7 +8066,7 @@
         <v>18</v>
       </c>
       <c r="E295">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G295">
         <v>0.02</v>
@@ -8094,7 +8092,7 @@
         <v>18</v>
       </c>
       <c r="E296">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G296">
         <v>0.02</v>
@@ -8120,7 +8118,7 @@
         <v>18</v>
       </c>
       <c r="E297">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G297">
         <v>0.02</v>
@@ -8146,7 +8144,7 @@
         <v>18</v>
       </c>
       <c r="E298">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G298">
         <v>0.02</v>
@@ -8172,7 +8170,7 @@
         <v>18</v>
       </c>
       <c r="E299">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G299">
         <v>0.02</v>
@@ -8198,7 +8196,7 @@
         <v>18</v>
       </c>
       <c r="E300">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G300">
         <v>0.02</v>
@@ -8224,7 +8222,7 @@
         <v>18</v>
       </c>
       <c r="E301">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G301">
         <v>0.02</v>
@@ -8250,7 +8248,7 @@
         <v>18</v>
       </c>
       <c r="E302">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G302">
         <v>0.02</v>
@@ -8276,7 +8274,7 @@
         <v>18</v>
       </c>
       <c r="E303">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G303">
         <v>0.02</v>
@@ -8302,7 +8300,7 @@
         <v>18</v>
       </c>
       <c r="E304">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G304">
         <v>0.02</v>
@@ -8328,7 +8326,7 @@
         <v>18</v>
       </c>
       <c r="E305">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G305">
         <v>0.02</v>
@@ -8354,7 +8352,7 @@
         <v>18</v>
       </c>
       <c r="E306">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G306">
         <v>0.02</v>
@@ -8380,7 +8378,7 @@
         <v>18</v>
       </c>
       <c r="E307">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G307">
         <v>0.02</v>
@@ -8406,7 +8404,7 @@
         <v>18</v>
       </c>
       <c r="E308">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G308">
         <v>0.02</v>
@@ -8432,7 +8430,7 @@
         <v>18</v>
       </c>
       <c r="E309">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G309">
         <v>0.02</v>
@@ -8458,7 +8456,7 @@
         <v>18</v>
       </c>
       <c r="E310">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G310">
         <v>0.02</v>
@@ -8484,7 +8482,7 @@
         <v>18</v>
       </c>
       <c r="E311">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G311">
         <v>0.02</v>
@@ -8510,7 +8508,7 @@
         <v>18</v>
       </c>
       <c r="E312">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G312">
         <v>0.02</v>
@@ -8536,7 +8534,7 @@
         <v>18</v>
       </c>
       <c r="E313">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G313">
         <v>0.02</v>
@@ -8562,7 +8560,7 @@
         <v>18</v>
       </c>
       <c r="E314">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G314">
         <v>0.02</v>
@@ -8588,7 +8586,7 @@
         <v>18</v>
       </c>
       <c r="E315">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G315">
         <v>0.02</v>
@@ -8614,7 +8612,7 @@
         <v>18</v>
       </c>
       <c r="E316">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G316">
         <v>0.02</v>
@@ -8640,7 +8638,7 @@
         <v>18</v>
       </c>
       <c r="E317">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G317">
         <v>0.02</v>
@@ -8652,11 +8650,63 @@
         <v>46</v>
       </c>
     </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>16</v>
+      </c>
+      <c r="B318" t="s">
+        <v>19</v>
+      </c>
+      <c r="C318" t="s">
+        <v>43</v>
+      </c>
+      <c r="D318" t="s">
+        <v>18</v>
+      </c>
+      <c r="E318">
+        <v>2018</v>
+      </c>
+      <c r="G318">
+        <v>0.02</v>
+      </c>
+      <c r="I318" t="s">
+        <v>45</v>
+      </c>
+      <c r="J318" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>16</v>
+      </c>
+      <c r="B319" t="s">
+        <v>19</v>
+      </c>
+      <c r="C319" t="s">
+        <v>43</v>
+      </c>
+      <c r="D319" t="s">
+        <v>18</v>
+      </c>
+      <c r="E319">
+        <v>2019</v>
+      </c>
+      <c r="G319">
+        <v>0.02</v>
+      </c>
+      <c r="I319" t="s">
+        <v>45</v>
+      </c>
+      <c r="J319" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A5:L574" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L576" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K8" r:id="rId1" xr:uid="{551E5581-983A-E74F-B049-6848A8895DFC}"/>
+    <hyperlink ref="K10" r:id="rId1" xr:uid="{551E5581-983A-E74F-B049-6848A8895DFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo_ivan/storage/CHE_sto_pumpedhydro.xlsx
+++ b/data/zenodo_ivan/storage/CHE_sto_pumpedhydro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/storage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BD8C72-CCC2-8943-A3EE-632A1EDFFDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFA43CC-CF02-4D49-8763-729811B0D7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="-4880" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10100" yWindow="500" windowWidth="21600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="102">
   <si>
     <t>Name:</t>
   </si>
@@ -326,9 +326,6 @@
     <t>capacity_to_activity</t>
   </si>
   <si>
-    <t>GW/TWh</t>
-  </si>
-  <si>
     <t>input</t>
   </si>
   <si>
@@ -336,6 +333,12 @@
   </si>
   <si>
     <t>configuration_fxe</t>
+  </si>
+  <si>
+    <t>PJ/GW</t>
+  </si>
+  <si>
+    <t>Maximum energy production per capacity unit, per year.</t>
   </si>
 </sst>
 </file>
@@ -786,7 +789,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -888,10 +891,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" t="s">
         <v>44</v>
@@ -908,10 +911,10 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
         <v>99</v>
-      </c>
-      <c r="D8" t="s">
-        <v>100</v>
       </c>
       <c r="F8" t="s">
         <v>44</v>
@@ -1016,10 +1019,13 @@
         <v>24</v>
       </c>
       <c r="G12">
-        <v>1E-3</v>
+        <v>31.54</v>
       </c>
       <c r="H12" t="s">
-        <v>97</v>
+        <v>100</v>
+      </c>
+      <c r="L12" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
